--- a/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9.846939882832615</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>21.5676583183101</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>43.1223861991733</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>121.2098066233146</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.533828788602668</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,120 +456,1092 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>25.60720851682375</v>
+      </c>
+      <c r="O2">
+        <v>100.138217826723</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>8.348867853008937</v>
+      </c>
+      <c r="D3">
+        <v>17.98982350758084</v>
+      </c>
+      <c r="E3">
+        <v>35.37791101891716</v>
+      </c>
+      <c r="F3">
+        <v>101.9663339442897</v>
+      </c>
+      <c r="G3">
+        <v>1.676941979065951</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="O3">
+        <v>84.16518059239412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>7.686306283341583</v>
+      </c>
+      <c r="D4">
+        <v>16.47145251541199</v>
+      </c>
+      <c r="E4">
+        <v>32.24496600653726</v>
+      </c>
+      <c r="F4">
+        <v>93.62415519563115</v>
+      </c>
+      <c r="G4">
+        <v>1.733054959758038</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>23.3359507766292</v>
+      </c>
+      <c r="O4">
+        <v>77.25107711611311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>7.435940407566455</v>
+      </c>
+      <c r="D5">
+        <v>15.90464301605045</v>
+      </c>
+      <c r="E5">
+        <v>31.09084756335044</v>
+      </c>
+      <c r="F5">
+        <v>90.49239443355582</v>
+      </c>
+      <c r="G5">
+        <v>1.753282300219223</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="O5">
+        <v>74.65607014922594</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>7.395137452094025</v>
+      </c>
+      <c r="D6">
+        <v>15.81258605962343</v>
+      </c>
+      <c r="E6">
+        <v>30.90409011386402</v>
+      </c>
+      <c r="F6">
+        <v>89.98300697329485</v>
+      </c>
+      <c r="G6">
+        <v>1.756530453139853</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>22.90084339962178</v>
+      </c>
+      <c r="O6">
+        <v>74.23400237919682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>7.682871038730796</v>
+      </c>
+      <c r="D7">
+        <v>16.46365184790131</v>
+      </c>
+      <c r="E7">
+        <v>32.22903118965703</v>
+      </c>
+      <c r="F7">
+        <v>93.58111176075619</v>
+      </c>
+      <c r="G7">
+        <v>1.733335997270248</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="O7">
+        <v>77.21540942977026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D8">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E8">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F8">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G8">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O8">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D9">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E9">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F9">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G9">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O9">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D10">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E10">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F10">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G10">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O10">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D11">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E11">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F11">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G11">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O11">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D12">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E12">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F12">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G12">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O12">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D13">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E13">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F13">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G13">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O13">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D14">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E14">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F14">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G14">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O14">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D15">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E15">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F15">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G15">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O15">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D16">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E16">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F16">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G16">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O16">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D17">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E17">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F17">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G17">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O17">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D18">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E18">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F18">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G18">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O18">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D19">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E19">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F19">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G19">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O19">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D20">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E20">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F20">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G20">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O20">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D21">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E21">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F21">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G21">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O21">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D22">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E22">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F22">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G22">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O22">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D23">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E23">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F23">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G23">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O23">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D24">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E24">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F24">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G24">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O24">
+        <v>93.26900797090984</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>9.209417990751783</v>
+      </c>
+      <c r="D25">
+        <v>20.01377631666508</v>
+      </c>
+      <c r="E25">
+        <v>39.6786814647063</v>
+      </c>
+      <c r="F25">
+        <v>112.9411916338677</v>
+      </c>
+      <c r="G25">
+        <v>1.597825491697449</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O25">
+        <v>93.26900797090984</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.846939882832615</v>
+        <v>7.573120761438721</v>
       </c>
       <c r="D2">
-        <v>21.5676583183101</v>
+        <v>6.013911756616793</v>
       </c>
       <c r="E2">
-        <v>43.1223861991733</v>
+        <v>8.774005403852682</v>
       </c>
       <c r="F2">
-        <v>121.2098066233146</v>
+        <v>24.73556859114382</v>
       </c>
       <c r="G2">
-        <v>1.533828788602668</v>
+        <v>2.099517091383888</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>18.47619666335624</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.913093614233936</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.56934928130942</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.993180855044207</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682375</v>
+        <v>12.8237976425968</v>
       </c>
       <c r="O2">
-        <v>100.138217826723</v>
+        <v>17.8714261362118</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.348867853008937</v>
+        <v>7.263166473890707</v>
       </c>
       <c r="D3">
-        <v>17.98982350758084</v>
+        <v>5.795573092489931</v>
       </c>
       <c r="E3">
-        <v>35.37791101891716</v>
+        <v>8.585398666384576</v>
       </c>
       <c r="F3">
-        <v>101.9663339442897</v>
+        <v>24.35154355019661</v>
       </c>
       <c r="G3">
-        <v>1.676941979065951</v>
+        <v>2.105197588630841</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>18.28619892343819</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.917006842490049</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.2578995296196</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.976841327186196</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>12.89208091957564</v>
       </c>
       <c r="O3">
-        <v>84.16518059239412</v>
+        <v>17.76807838043581</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.686306283341583</v>
+        <v>7.068988977735915</v>
       </c>
       <c r="D4">
-        <v>16.47145251541199</v>
+        <v>5.659101621697779</v>
       </c>
       <c r="E4">
-        <v>32.24496600653726</v>
+        <v>8.471371586041361</v>
       </c>
       <c r="F4">
-        <v>93.62415519563115</v>
+        <v>24.13525112600706</v>
       </c>
       <c r="G4">
-        <v>1.733054959758038</v>
+        <v>2.108794870034686</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>18.18453871494477</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.921599629875467</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.45998903460253</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.968908004851232</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.3359507766292</v>
+        <v>12.9378916200998</v>
       </c>
       <c r="O4">
-        <v>77.25107711611311</v>
+        <v>17.72096866551523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.435940407566455</v>
+        <v>6.989002730373469</v>
       </c>
       <c r="D5">
-        <v>15.90464301605045</v>
+        <v>5.602961754779483</v>
       </c>
       <c r="E5">
-        <v>31.09084756335044</v>
+        <v>8.425402366793639</v>
       </c>
       <c r="F5">
-        <v>90.49239443355582</v>
+        <v>24.05197269464504</v>
       </c>
       <c r="G5">
-        <v>1.753282300219223</v>
+        <v>2.11028896406821</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>18.14680333279443</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.924011744629292</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.12917446038814</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.966196180534033</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>12.95751616303384</v>
       </c>
       <c r="O5">
-        <v>74.65607014922594</v>
+        <v>17.7057460957947</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.395137452094025</v>
+        <v>6.975672899941163</v>
       </c>
       <c r="D6">
-        <v>15.81258605962343</v>
+        <v>5.593610441816877</v>
       </c>
       <c r="E6">
-        <v>30.90409011386402</v>
+        <v>8.41780075701601</v>
       </c>
       <c r="F6">
-        <v>89.98300697329485</v>
+        <v>24.03843653755185</v>
       </c>
       <c r="G6">
-        <v>1.756530453139853</v>
+        <v>2.110538777411424</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>18.14075787477012</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.924444624578278</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.07365037934612</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.965777152171085</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962178</v>
+        <v>12.96083198927376</v>
       </c>
       <c r="O6">
-        <v>74.23400237919682</v>
+        <v>17.70345439359426</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.682871038730796</v>
+        <v>7.067913565533486</v>
       </c>
       <c r="D7">
-        <v>16.46365184790131</v>
+        <v>5.658346521317312</v>
       </c>
       <c r="E7">
-        <v>32.22903118965703</v>
+        <v>8.470749546722871</v>
       </c>
       <c r="F7">
-        <v>93.58111176075619</v>
+        <v>24.13410838206416</v>
       </c>
       <c r="G7">
-        <v>1.733335997270248</v>
+        <v>2.108814904993184</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>18.18401496585743</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.921629985334838</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.45556736992476</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.968869331591713</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>12.93815243753531</v>
       </c>
       <c r="O7">
-        <v>77.21540942977026</v>
+        <v>17.72074745766273</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.209417990751783</v>
+        <v>7.467114998284341</v>
       </c>
       <c r="D8">
-        <v>20.01377631666508</v>
+        <v>5.939174204976278</v>
       </c>
       <c r="E8">
-        <v>39.6786814647063</v>
+        <v>8.708634937125465</v>
       </c>
       <c r="F8">
-        <v>112.9411916338677</v>
+        <v>24.5990895279812</v>
       </c>
       <c r="G8">
-        <v>1.597825491697449</v>
+        <v>2.101453417873293</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>18.4075273142747</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.913982179287412</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.12715178660012</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.987107267304951</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>12.84652275093056</v>
       </c>
       <c r="O8">
-        <v>93.26900797090984</v>
+        <v>17.83231989724462</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.209417990751783</v>
+        <v>8.214951357105777</v>
       </c>
       <c r="D9">
-        <v>20.01377631666508</v>
+        <v>6.467660562159054</v>
       </c>
       <c r="E9">
-        <v>39.6786814647063</v>
+        <v>9.187062088345192</v>
       </c>
       <c r="F9">
-        <v>112.9411916338677</v>
+        <v>25.66675594428731</v>
       </c>
       <c r="G9">
-        <v>1.597825491697449</v>
+        <v>2.087854582638522</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>18.96794331159916</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.916827217087215</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.13463988841973</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.039825743988382</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>25.1395913014106</v>
+        <v>12.69864924183466</v>
       </c>
       <c r="O9">
-        <v>93.26900797090984</v>
+        <v>18.18648824413503</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.209417990751783</v>
+        <v>8.738183528001541</v>
       </c>
       <c r="D10">
-        <v>20.01377631666508</v>
+        <v>6.838829631415246</v>
       </c>
       <c r="E10">
-        <v>39.6786814647063</v>
+        <v>9.543062106263211</v>
       </c>
       <c r="F10">
-        <v>112.9411916338677</v>
+        <v>26.5468874293474</v>
       </c>
       <c r="G10">
-        <v>1.597825491697449</v>
+        <v>2.078327560180816</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>19.45775003316183</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.930449173340819</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>24.11677639215447</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.089296243981349</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>25.1395913014106</v>
+        <v>12.61087683492239</v>
       </c>
       <c r="O10">
-        <v>93.26900797090984</v>
+        <v>18.53641638849522</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.209417990751783</v>
+        <v>8.969746290071988</v>
       </c>
       <c r="D11">
-        <v>20.01377631666508</v>
+        <v>7.003371255829418</v>
       </c>
       <c r="E11">
-        <v>39.6786814647063</v>
+        <v>9.705458748524446</v>
       </c>
       <c r="F11">
-        <v>112.9411916338677</v>
+        <v>26.96803500663308</v>
       </c>
       <c r="G11">
-        <v>1.597825491697449</v>
+        <v>2.074083312025417</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>19.69814394903684</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.939295719830339</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>24.97009931687105</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.114217918504962</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>25.1395913014106</v>
+        <v>12.57583440429938</v>
       </c>
       <c r="O11">
-        <v>93.26900797090984</v>
+        <v>18.71646140563909</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.209417990751783</v>
+        <v>9.056454322628493</v>
       </c>
       <c r="D12">
-        <v>20.01377631666508</v>
+        <v>7.0650196895455</v>
       </c>
       <c r="E12">
-        <v>39.6786814647063</v>
+        <v>9.766978864489271</v>
       </c>
       <c r="F12">
-        <v>112.9411916338677</v>
+        <v>27.13048794993168</v>
       </c>
       <c r="G12">
-        <v>1.597825491697449</v>
+        <v>2.072488054109423</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>19.79174346650608</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.943039025698188</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>25.28635875285428</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.124009460507192</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>25.1395913014106</v>
+        <v>12.56329954850212</v>
       </c>
       <c r="O12">
-        <v>93.26900797090984</v>
+        <v>18.78774057670653</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.209417990751783</v>
+        <v>9.03782447571499</v>
       </c>
       <c r="D13">
-        <v>20.01377631666508</v>
+        <v>7.0517725238792</v>
       </c>
       <c r="E13">
-        <v>39.6786814647063</v>
+        <v>9.753728942102189</v>
       </c>
       <c r="F13">
-        <v>112.9411916338677</v>
+        <v>27.09536877345134</v>
       </c>
       <c r="G13">
-        <v>1.597825491697449</v>
+        <v>2.072831105837776</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>19.77147035256504</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.942215145849215</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>25.21855112699163</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.121884815012892</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>25.1395913014106</v>
+        <v>12.56596592665319</v>
       </c>
       <c r="O13">
-        <v>93.26900797090984</v>
+        <v>18.77224993437854</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.209417990751783</v>
+        <v>8.976899703966312</v>
       </c>
       <c r="D14">
-        <v>20.01377631666508</v>
+        <v>7.008456544834803</v>
       </c>
       <c r="E14">
-        <v>39.6786814647063</v>
+        <v>9.710519782388245</v>
       </c>
       <c r="F14">
-        <v>112.9411916338677</v>
+        <v>26.9813405937428</v>
       </c>
       <c r="G14">
-        <v>1.597825491697449</v>
+        <v>2.073951835404092</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>19.70579276676964</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.93959572972421</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>24.99625550379752</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.115016336653238</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25.1395913014106</v>
+        <v>12.5747882309792</v>
       </c>
       <c r="O14">
-        <v>93.26900797090984</v>
+        <v>18.72226290717665</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.209417990751783</v>
+        <v>8.939452588462851</v>
       </c>
       <c r="D15">
-        <v>20.01377631666508</v>
+        <v>6.981837221800974</v>
       </c>
       <c r="E15">
-        <v>39.6786814647063</v>
+        <v>9.684054915788867</v>
       </c>
       <c r="F15">
-        <v>112.9411916338677</v>
+        <v>26.91188186724038</v>
       </c>
       <c r="G15">
-        <v>1.597825491697449</v>
+        <v>2.074639841326023</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>19.66589883006155</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.938042852815966</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>24.8592000167617</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.110855526803035</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>25.1395913014106</v>
+        <v>12.58028885983766</v>
       </c>
       <c r="O15">
-        <v>93.26900797090984</v>
+        <v>18.69205098127517</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.209417990751783</v>
+        <v>8.722915797544859</v>
       </c>
       <c r="D16">
-        <v>20.01377631666508</v>
+        <v>6.827986171673039</v>
       </c>
       <c r="E16">
-        <v>39.6786814647063</v>
+        <v>9.532454591837228</v>
       </c>
       <c r="F16">
-        <v>112.9411916338677</v>
+        <v>26.51978130042264</v>
       </c>
       <c r="G16">
-        <v>1.597825491697449</v>
+        <v>2.078606656402557</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>19.44239695272073</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.929925392613175</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>24.06004326179788</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.087716762354707</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>25.1395913014106</v>
+        <v>12.61326797072686</v>
       </c>
       <c r="O16">
-        <v>93.26900797090984</v>
+        <v>18.52507853101524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.209417990751783</v>
+        <v>8.588383720226139</v>
       </c>
       <c r="D17">
-        <v>20.01377631666508</v>
+        <v>6.732469646805968</v>
       </c>
       <c r="E17">
-        <v>39.6786814647063</v>
+        <v>9.439537805219356</v>
       </c>
       <c r="F17">
-        <v>112.9411916338677</v>
+        <v>26.28455133083915</v>
       </c>
       <c r="G17">
-        <v>1.597825491697449</v>
+        <v>2.08106247706525</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>19.30981784499632</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.925632897081391</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>23.55745531584231</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.074145715607085</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.1395913014106</v>
+        <v>12.63477327164091</v>
       </c>
       <c r="O17">
-        <v>93.26900797090984</v>
+        <v>18.42806294893574</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.209417990751783</v>
+        <v>8.510398917313594</v>
       </c>
       <c r="D18">
-        <v>20.01377631666508</v>
+        <v>6.677127846824832</v>
       </c>
       <c r="E18">
-        <v>39.6786814647063</v>
+        <v>9.386139120853365</v>
       </c>
       <c r="F18">
-        <v>112.9411916338677</v>
+        <v>26.15120938880884</v>
       </c>
       <c r="G18">
-        <v>1.597825491697449</v>
+        <v>2.082483497877763</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>19.23521438119155</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.923412629590565</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>23.2638231945688</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.066567138233518</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>25.1395913014106</v>
+        <v>12.64760034206973</v>
       </c>
       <c r="O18">
-        <v>93.26900797090984</v>
+        <v>18.37422017380898</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.209417990751783</v>
+        <v>8.483892333696563</v>
       </c>
       <c r="D19">
-        <v>20.01377631666508</v>
+        <v>6.658322168435508</v>
       </c>
       <c r="E19">
-        <v>39.6786814647063</v>
+        <v>9.368068210774377</v>
       </c>
       <c r="F19">
-        <v>112.9411916338677</v>
+        <v>26.1063984471061</v>
       </c>
       <c r="G19">
-        <v>1.597825491697449</v>
+        <v>2.082966118315145</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>19.21023746581137</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.92270322535534</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>23.16361940689591</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.064039970475297</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>25.1395913014106</v>
+        <v>12.65202104299488</v>
       </c>
       <c r="O19">
-        <v>93.26900797090984</v>
+        <v>18.35632305504689</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.209417990751783</v>
+        <v>8.602767960497051</v>
       </c>
       <c r="D20">
-        <v>20.01377631666508</v>
+        <v>6.742679593506221</v>
       </c>
       <c r="E20">
-        <v>39.6786814647063</v>
+        <v>9.449424648687124</v>
       </c>
       <c r="F20">
-        <v>112.9411916338677</v>
+        <v>26.30938960582585</v>
       </c>
       <c r="G20">
-        <v>1.597825491697449</v>
+        <v>2.080800177912874</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>19.32375978414396</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.926064017272312</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>23.61142771268901</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.07556682174073</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>25.1395913014106</v>
+        <v>12.63243638858595</v>
       </c>
       <c r="O20">
-        <v>93.26900797090984</v>
+        <v>18.43818702675888</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.209417990751783</v>
+        <v>8.994821732762217</v>
       </c>
       <c r="D21">
-        <v>20.01377631666508</v>
+        <v>7.021197699301342</v>
       </c>
       <c r="E21">
-        <v>39.6786814647063</v>
+        <v>9.723211011791708</v>
       </c>
       <c r="F21">
-        <v>112.9411916338677</v>
+        <v>27.01475284429835</v>
       </c>
       <c r="G21">
-        <v>1.597825491697449</v>
+        <v>2.073622333577799</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>19.72501388638714</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.940354341772841</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>25.06173507244269</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.117024107835927</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>25.1395913014106</v>
+        <v>12.5721766904892</v>
       </c>
       <c r="O21">
-        <v>93.26900797090984</v>
+        <v>18.73686041033204</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.209417990751783</v>
+        <v>9.24532415948868</v>
       </c>
       <c r="D22">
-        <v>20.01377631666508</v>
+        <v>7.199364719423383</v>
       </c>
       <c r="E22">
-        <v>39.6786814647063</v>
+        <v>9.902270445560031</v>
       </c>
       <c r="F22">
-        <v>112.9411916338677</v>
+        <v>27.49307440792376</v>
       </c>
       <c r="G22">
-        <v>1.597825491697449</v>
+        <v>2.069000346119595</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.00223825686176</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.951992384253225</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>25.9695580743973</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.146186806501327</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>25.1395913014106</v>
+        <v>12.53709403352374</v>
       </c>
       <c r="O22">
-        <v>93.26900797090984</v>
+        <v>18.95017191051741</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.209417990751783</v>
+        <v>9.112164605736844</v>
       </c>
       <c r="D23">
-        <v>20.01377631666508</v>
+        <v>7.104638627242742</v>
       </c>
       <c r="E23">
-        <v>39.6786814647063</v>
+        <v>9.80670405079481</v>
       </c>
       <c r="F23">
-        <v>112.9411916338677</v>
+        <v>27.23620428632196</v>
       </c>
       <c r="G23">
-        <v>1.597825491697449</v>
+        <v>2.071461189845625</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>19.85289541072155</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.945566476389932</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>25.4886724431498</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.130430687770618</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>25.1395913014106</v>
+        <v>12.55541350817011</v>
       </c>
       <c r="O23">
-        <v>93.26900797090984</v>
+        <v>18.8346349975804</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.209417990751783</v>
+        <v>8.596266836556142</v>
       </c>
       <c r="D24">
-        <v>20.01377631666508</v>
+        <v>6.738065006793508</v>
       </c>
       <c r="E24">
-        <v>39.6786814647063</v>
+        <v>9.444954740027645</v>
       </c>
       <c r="F24">
-        <v>112.9411916338677</v>
+        <v>26.29815431846901</v>
       </c>
       <c r="G24">
-        <v>1.597825491697449</v>
+        <v>2.080918734829844</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>19.31745159669808</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.925868337709068</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.58704139888296</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.074923643700271</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>25.1395913014106</v>
+        <v>12.63349145249409</v>
       </c>
       <c r="O24">
-        <v>93.26900797090984</v>
+        <v>18.43360391868082</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.209417990751783</v>
+        <v>8.01693976045634</v>
       </c>
       <c r="D25">
-        <v>20.01377631666508</v>
+        <v>6.327467825543738</v>
       </c>
       <c r="E25">
-        <v>39.6786814647063</v>
+        <v>9.056652493256189</v>
       </c>
       <c r="F25">
-        <v>112.9411916338677</v>
+        <v>25.36112421112485</v>
       </c>
       <c r="G25">
-        <v>1.597825491697449</v>
+        <v>2.091448428691019</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>18.80285603560677</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.9140806194754</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.36130678828293</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.023706823361909</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>25.1395913014106</v>
+        <v>12.73510151363446</v>
       </c>
       <c r="O25">
-        <v>93.26900797090984</v>
+        <v>18.07540956888286</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.573120761438721</v>
+        <v>9.822975188313588</v>
       </c>
       <c r="D2">
-        <v>6.013911756616793</v>
+        <v>8.382557364165249</v>
       </c>
       <c r="E2">
-        <v>8.774005403852682</v>
+        <v>13.54097890451894</v>
       </c>
       <c r="F2">
-        <v>24.73556859114382</v>
+        <v>37.33424484278362</v>
       </c>
       <c r="G2">
-        <v>2.099517091383888</v>
+        <v>3.684782927488232</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>18.47619666335624</v>
+        <v>28.99449201422622</v>
       </c>
       <c r="J2">
-        <v>5.913093614233936</v>
+        <v>10.38122023858667</v>
       </c>
       <c r="K2">
-        <v>19.56934928130942</v>
+        <v>17.53470595995335</v>
       </c>
       <c r="L2">
-        <v>5.993180855044207</v>
+        <v>10.40610512897701</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.8237976425968</v>
+        <v>18.17491623888462</v>
       </c>
       <c r="O2">
-        <v>17.8714261362118</v>
+        <v>28.5868639829312</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.263166473890707</v>
+        <v>9.779702990359894</v>
       </c>
       <c r="D3">
-        <v>5.795573092489931</v>
+        <v>8.354175454606992</v>
       </c>
       <c r="E3">
-        <v>8.585398666384576</v>
+        <v>13.53789774736287</v>
       </c>
       <c r="F3">
-        <v>24.35154355019661</v>
+        <v>37.40571310126639</v>
       </c>
       <c r="G3">
-        <v>2.105197588630841</v>
+        <v>3.68698184167519</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>18.28619892343819</v>
+        <v>29.06349678656478</v>
       </c>
       <c r="J3">
-        <v>5.917006842490049</v>
+        <v>10.40019537623019</v>
       </c>
       <c r="K3">
-        <v>18.2578995296196</v>
+        <v>17.16509199144393</v>
       </c>
       <c r="L3">
-        <v>5.976841327186196</v>
+        <v>10.42151919379589</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.89208091957564</v>
+        <v>18.20924359476</v>
       </c>
       <c r="O3">
-        <v>17.76807838043581</v>
+        <v>28.67259474696727</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.068988977735915</v>
+        <v>9.754594240186213</v>
       </c>
       <c r="D4">
-        <v>5.659101621697779</v>
+        <v>8.337728429668791</v>
       </c>
       <c r="E4">
-        <v>8.471371586041361</v>
+        <v>13.53790823747973</v>
       </c>
       <c r="F4">
-        <v>24.13525112600706</v>
+        <v>37.45820806963913</v>
       </c>
       <c r="G4">
-        <v>2.108794870034686</v>
+        <v>3.688404093187684</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>18.18453871494477</v>
+        <v>29.11200529675742</v>
       </c>
       <c r="J4">
-        <v>5.921599629875467</v>
+        <v>10.4128981472917</v>
       </c>
       <c r="K4">
-        <v>17.45998903460253</v>
+        <v>16.93594555692027</v>
       </c>
       <c r="L4">
-        <v>5.968908004851232</v>
+        <v>10.43202919095558</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.9378916200998</v>
+        <v>18.23216165333249</v>
       </c>
       <c r="O4">
-        <v>17.72096866551523</v>
+        <v>28.7313746763993</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.989002730373469</v>
+        <v>9.744737042435887</v>
       </c>
       <c r="D5">
-        <v>5.602961754779483</v>
+        <v>8.33127683732034</v>
       </c>
       <c r="E5">
-        <v>8.425402366793639</v>
+        <v>13.53839243528994</v>
       </c>
       <c r="F5">
-        <v>24.05197269464504</v>
+        <v>37.48176154494237</v>
       </c>
       <c r="G5">
-        <v>2.11028896406821</v>
+        <v>3.689001862299768</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>18.14680333279443</v>
+        <v>29.13331372561631</v>
       </c>
       <c r="J5">
-        <v>5.924011744629292</v>
+        <v>10.41833953523385</v>
       </c>
       <c r="K5">
-        <v>17.12917446038814</v>
+        <v>16.84213479153787</v>
       </c>
       <c r="L5">
-        <v>5.966196180534033</v>
+        <v>10.43657546209402</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.95751616303384</v>
+        <v>18.24196463205231</v>
       </c>
       <c r="O5">
-        <v>17.7057460957947</v>
+        <v>28.75686867913954</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.975672899941163</v>
+        <v>9.743123112718152</v>
       </c>
       <c r="D6">
-        <v>5.593610441816877</v>
+        <v>8.330220820799717</v>
       </c>
       <c r="E6">
-        <v>8.41780075701601</v>
+        <v>13.53850186453122</v>
       </c>
       <c r="F6">
-        <v>24.03843653755185</v>
+        <v>37.48580297890222</v>
       </c>
       <c r="G6">
-        <v>2.110538777411424</v>
+        <v>3.689102221735029</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18.14075787477012</v>
+        <v>29.13694494409394</v>
       </c>
       <c r="J6">
-        <v>5.924444624578278</v>
+        <v>10.41925908433402</v>
       </c>
       <c r="K6">
-        <v>17.07365037934612</v>
+        <v>16.82653515485825</v>
       </c>
       <c r="L6">
-        <v>5.965777152171085</v>
+        <v>10.43734628526461</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.96083198927376</v>
+        <v>18.24362043724672</v>
       </c>
       <c r="O6">
-        <v>17.70345439359426</v>
+        <v>28.7611948890968</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.067913565533486</v>
+        <v>9.754459775268549</v>
       </c>
       <c r="D7">
-        <v>5.658346521317312</v>
+        <v>8.337640400521581</v>
       </c>
       <c r="E7">
-        <v>8.470749546722871</v>
+        <v>13.53791282240377</v>
       </c>
       <c r="F7">
-        <v>24.13410838206416</v>
+        <v>37.45851697523123</v>
       </c>
       <c r="G7">
-        <v>2.108814904993184</v>
+        <v>3.688412081183877</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>18.18401496585743</v>
+        <v>29.11228643509386</v>
       </c>
       <c r="J7">
-        <v>5.921629985334838</v>
+        <v>10.41297045865573</v>
       </c>
       <c r="K7">
-        <v>17.45556736992476</v>
+        <v>16.93468197602691</v>
       </c>
       <c r="L7">
-        <v>5.968869331591713</v>
+        <v>10.43208943667498</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.93815243753531</v>
+        <v>18.23229198127715</v>
       </c>
       <c r="O7">
-        <v>17.72074745766273</v>
+        <v>28.73171226391534</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.467114998284341</v>
+        <v>9.807756456248255</v>
       </c>
       <c r="D8">
-        <v>5.939174204976278</v>
+        <v>8.372570661390052</v>
       </c>
       <c r="E8">
-        <v>8.708634937125465</v>
+        <v>13.53952267929756</v>
       </c>
       <c r="F8">
-        <v>24.5990895279812</v>
+        <v>37.35709689474807</v>
       </c>
       <c r="G8">
-        <v>2.101453417873293</v>
+        <v>3.685526181537941</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>18.4075273142747</v>
+        <v>29.01700894063876</v>
       </c>
       <c r="J8">
-        <v>5.913982179287412</v>
+        <v>10.38754476218997</v>
       </c>
       <c r="K8">
-        <v>19.12715178660012</v>
+        <v>17.40779191889295</v>
       </c>
       <c r="L8">
-        <v>5.987107267304951</v>
+        <v>10.41120311376709</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.84652275093056</v>
+        <v>18.1863706871257</v>
       </c>
       <c r="O8">
-        <v>17.83231989724462</v>
+        <v>28.61514736458965</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.214951357105777</v>
+        <v>9.923509538118156</v>
       </c>
       <c r="D9">
-        <v>6.467660562159054</v>
+        <v>8.44864020605859</v>
       </c>
       <c r="E9">
-        <v>9.187062088345192</v>
+        <v>13.55769936182692</v>
       </c>
       <c r="F9">
-        <v>25.66675594428731</v>
+        <v>37.22673323183734</v>
       </c>
       <c r="G9">
-        <v>2.087854582638522</v>
+        <v>3.680436468497683</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>18.96794331159916</v>
+        <v>28.87900610832028</v>
       </c>
       <c r="J9">
-        <v>5.916827217087215</v>
+        <v>10.34601499378944</v>
       </c>
       <c r="K9">
-        <v>22.13463988841973</v>
+        <v>18.31296140968827</v>
       </c>
       <c r="L9">
-        <v>6.039825743988382</v>
+        <v>10.37852403491443</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.69864924183466</v>
+        <v>18.11089267965676</v>
       </c>
       <c r="O9">
-        <v>18.18648824413503</v>
+        <v>28.43543911175928</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.738183528001541</v>
+        <v>10.01491003651341</v>
       </c>
       <c r="D10">
-        <v>6.838829631415246</v>
+        <v>8.508862641004185</v>
       </c>
       <c r="E10">
-        <v>9.543062106263211</v>
+        <v>13.58010211690467</v>
       </c>
       <c r="F10">
-        <v>26.5468874293474</v>
+        <v>37.17293884025679</v>
       </c>
       <c r="G10">
-        <v>2.078327560180816</v>
+        <v>3.677040578284438</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.45775003316183</v>
+        <v>28.80754246124745</v>
       </c>
       <c r="J10">
-        <v>5.930449173340819</v>
+        <v>10.32055835191111</v>
       </c>
       <c r="K10">
-        <v>24.11677639215447</v>
+        <v>18.95772206088191</v>
       </c>
       <c r="L10">
-        <v>6.089296243981349</v>
+        <v>10.35953712904453</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.61087683492239</v>
+        <v>18.06427903018037</v>
       </c>
       <c r="O10">
-        <v>18.53641638849522</v>
+        <v>28.33339986785056</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.969746290071988</v>
+        <v>10.05775805556041</v>
       </c>
       <c r="D11">
-        <v>7.003371255829418</v>
+        <v>8.53713652583478</v>
       </c>
       <c r="E11">
-        <v>9.705458748524446</v>
+        <v>13.59223184738417</v>
       </c>
       <c r="F11">
-        <v>26.96803500663308</v>
+        <v>37.15761475254154</v>
       </c>
       <c r="G11">
-        <v>2.074083312025417</v>
+        <v>3.675569510329285</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.69814394903684</v>
+        <v>28.78155760127</v>
       </c>
       <c r="J11">
-        <v>5.939295719830339</v>
+        <v>10.31007025589733</v>
       </c>
       <c r="K11">
-        <v>24.97009931687105</v>
+        <v>19.2453838232509</v>
       </c>
       <c r="L11">
-        <v>6.114217918504962</v>
+        <v>10.35198463757825</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.57583440429938</v>
+        <v>18.04498357645402</v>
       </c>
       <c r="O11">
-        <v>18.71646140563909</v>
+        <v>28.29353072991332</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.056454322628493</v>
+        <v>10.0741560295952</v>
       </c>
       <c r="D12">
-        <v>7.0650196895455</v>
+        <v>8.547963714497078</v>
       </c>
       <c r="E12">
-        <v>9.766978864489271</v>
+        <v>13.59710123603893</v>
       </c>
       <c r="F12">
-        <v>27.13048794993168</v>
+        <v>37.15312865963802</v>
       </c>
       <c r="G12">
-        <v>2.072488054109423</v>
+        <v>3.675022999518517</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.79174346650608</v>
+        <v>28.77265769590366</v>
       </c>
       <c r="J12">
-        <v>5.943039025698188</v>
+        <v>10.3062553513282</v>
       </c>
       <c r="K12">
-        <v>25.28635875285428</v>
+        <v>19.35340628640979</v>
       </c>
       <c r="L12">
-        <v>6.124009460507192</v>
+        <v>10.3492802220711</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.56329954850212</v>
+        <v>18.0379507211161</v>
       </c>
       <c r="O12">
-        <v>18.78774057670653</v>
+        <v>28.27937791705068</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.03782447571499</v>
+        <v>10.07061693177053</v>
       </c>
       <c r="D13">
-        <v>7.0517725238792</v>
+        <v>8.545626621719963</v>
       </c>
       <c r="E13">
-        <v>9.753728942102189</v>
+        <v>13.59604028951372</v>
       </c>
       <c r="F13">
-        <v>27.09536877345134</v>
+        <v>37.15403623959605</v>
       </c>
       <c r="G13">
-        <v>2.072831105837776</v>
+        <v>3.67514023199384</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.77147035256504</v>
+        <v>28.77453261795155</v>
       </c>
       <c r="J13">
-        <v>5.942215145849215</v>
+        <v>10.30706999529135</v>
       </c>
       <c r="K13">
-        <v>25.21855112699163</v>
+        <v>19.33018361450271</v>
       </c>
       <c r="L13">
-        <v>6.121884815012892</v>
+        <v>10.34985575533726</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.56596592665319</v>
+        <v>18.03945320014583</v>
       </c>
       <c r="O13">
-        <v>18.77224993437854</v>
+        <v>28.2823839141112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.976899703966312</v>
+        <v>10.05910373170789</v>
       </c>
       <c r="D14">
-        <v>7.008456544834803</v>
+        <v>8.538024904474023</v>
       </c>
       <c r="E14">
-        <v>9.710519782388245</v>
+        <v>13.59262693681271</v>
       </c>
       <c r="F14">
-        <v>26.9813405937428</v>
+        <v>37.15721928258385</v>
       </c>
       <c r="G14">
-        <v>2.073951835404092</v>
+        <v>3.675524337406103</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.70579276676964</v>
+        <v>28.78080655260352</v>
       </c>
       <c r="J14">
-        <v>5.93959572972421</v>
+        <v>10.30975326275946</v>
       </c>
       <c r="K14">
-        <v>24.99625550379752</v>
+        <v>19.25428964394726</v>
       </c>
       <c r="L14">
-        <v>6.115016336653238</v>
+        <v>10.35175902879623</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.5747882309792</v>
+        <v>18.04439949323781</v>
       </c>
       <c r="O14">
-        <v>18.72226290717665</v>
+        <v>28.29234741847331</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.939452588462851</v>
+        <v>10.05207370360026</v>
       </c>
       <c r="D15">
-        <v>6.981837221800974</v>
+        <v>8.533384147768444</v>
       </c>
       <c r="E15">
-        <v>9.684054915788867</v>
+        <v>13.59057203741853</v>
       </c>
       <c r="F15">
-        <v>26.91188186724038</v>
+        <v>37.15934050559068</v>
       </c>
       <c r="G15">
-        <v>2.074639841326023</v>
+        <v>3.675760985509562</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.66589883006155</v>
+        <v>28.78477198200259</v>
       </c>
       <c r="J15">
-        <v>5.938042852815966</v>
+        <v>10.31141723916183</v>
       </c>
       <c r="K15">
-        <v>24.8592000167617</v>
+        <v>19.20768126736604</v>
       </c>
       <c r="L15">
-        <v>6.110855526803035</v>
+        <v>10.3529450826612</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.58028885983766</v>
+        <v>18.04746489325187</v>
       </c>
       <c r="O15">
-        <v>18.69205098127517</v>
+        <v>28.29857347471572</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.722915797544859</v>
+        <v>10.01213449783061</v>
       </c>
       <c r="D16">
-        <v>6.827986171673039</v>
+        <v>8.507032056994602</v>
       </c>
       <c r="E16">
-        <v>9.532454591837228</v>
+        <v>13.57934819819574</v>
       </c>
       <c r="F16">
-        <v>26.51978130042264</v>
+        <v>37.17412451170588</v>
       </c>
       <c r="G16">
-        <v>2.078606656402557</v>
+        <v>3.677138195326813</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.44239695272073</v>
+        <v>28.80937208115586</v>
       </c>
       <c r="J16">
-        <v>5.929925392613175</v>
+        <v>10.32126572238924</v>
       </c>
       <c r="K16">
-        <v>24.06004326179788</v>
+        <v>18.93880066282558</v>
       </c>
       <c r="L16">
-        <v>6.087716762354707</v>
+        <v>10.36005249301856</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.61326797072686</v>
+        <v>18.06557839877322</v>
       </c>
       <c r="O16">
-        <v>18.52507853101524</v>
+        <v>28.33613745631481</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.588383720226139</v>
+        <v>9.987951067927577</v>
       </c>
       <c r="D17">
-        <v>6.732469646805968</v>
+        <v>8.491086784587898</v>
       </c>
       <c r="E17">
-        <v>9.439537805219356</v>
+        <v>13.57295743552612</v>
       </c>
       <c r="F17">
-        <v>26.28455133083915</v>
+        <v>37.1855381114568</v>
       </c>
       <c r="G17">
-        <v>2.08106247706525</v>
+        <v>3.678001917592906</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.30981784499632</v>
+        <v>28.82613587210236</v>
       </c>
       <c r="J17">
-        <v>5.925632897081391</v>
+        <v>10.3275869498716</v>
       </c>
       <c r="K17">
-        <v>23.55745531584231</v>
+        <v>18.77233443220189</v>
       </c>
       <c r="L17">
-        <v>6.074145715607085</v>
+        <v>10.36469018258864</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.63477327164091</v>
+        <v>18.07717901191711</v>
       </c>
       <c r="O17">
-        <v>18.42806294893574</v>
+        <v>28.36086132500795</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.510398917313594</v>
+        <v>9.974161515585726</v>
       </c>
       <c r="D18">
-        <v>6.677127846824832</v>
+        <v>8.48199852409563</v>
       </c>
       <c r="E18">
-        <v>9.386139120853365</v>
+        <v>13.56946427861545</v>
       </c>
       <c r="F18">
-        <v>26.15120938880884</v>
+        <v>37.19296385459406</v>
       </c>
       <c r="G18">
-        <v>2.082483497877763</v>
+        <v>3.678505651648201</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.23521438119155</v>
+        <v>28.83639197318197</v>
       </c>
       <c r="J18">
-        <v>5.923412629590565</v>
+        <v>10.33132558279163</v>
       </c>
       <c r="K18">
-        <v>23.2638231945688</v>
+        <v>18.67606170628003</v>
       </c>
       <c r="L18">
-        <v>6.066567138233518</v>
+        <v>10.36745978741465</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.64760034206973</v>
+        <v>18.08403113101572</v>
       </c>
       <c r="O18">
-        <v>18.37422017380898</v>
+        <v>28.37569809844274</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.483892333696563</v>
+        <v>9.969513546337295</v>
       </c>
       <c r="D19">
-        <v>6.658322168435508</v>
+        <v>8.4789358321877</v>
       </c>
       <c r="E19">
-        <v>9.368068210774377</v>
+        <v>13.56831300202824</v>
       </c>
       <c r="F19">
-        <v>26.1063984471061</v>
+        <v>37.19562589532735</v>
       </c>
       <c r="G19">
-        <v>2.082966118315145</v>
+        <v>3.678677401578481</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.21023746581137</v>
+        <v>28.83996990930386</v>
       </c>
       <c r="J19">
-        <v>5.92270322535534</v>
+        <v>10.33260909157892</v>
       </c>
       <c r="K19">
-        <v>23.16361940689591</v>
+        <v>18.64337819138977</v>
       </c>
       <c r="L19">
-        <v>6.064039970475297</v>
+        <v>10.36841508175893</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.65202104299488</v>
+        <v>18.08638203336192</v>
       </c>
       <c r="O19">
-        <v>18.35632305504689</v>
+        <v>28.38082732226991</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.602767960497051</v>
+        <v>9.990513076650585</v>
       </c>
       <c r="D20">
-        <v>6.742679593506221</v>
+        <v>8.492775633621971</v>
       </c>
       <c r="E20">
-        <v>9.449424648687124</v>
+        <v>13.57361885907849</v>
       </c>
       <c r="F20">
-        <v>26.30938960582585</v>
+        <v>37.18423399713914</v>
       </c>
       <c r="G20">
-        <v>2.080800177912874</v>
+        <v>3.677909254605431</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.32375978414396</v>
+        <v>28.82428777580661</v>
       </c>
       <c r="J20">
-        <v>5.926064017272312</v>
+        <v>10.32690340444959</v>
       </c>
       <c r="K20">
-        <v>23.61142771268901</v>
+        <v>18.79011018620272</v>
       </c>
       <c r="L20">
-        <v>6.07556682174073</v>
+        <v>10.36418592582523</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.63243638858595</v>
+        <v>18.07592550774068</v>
       </c>
       <c r="O20">
-        <v>18.43818702675888</v>
+        <v>28.3581656239575</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.994821732762217</v>
+        <v>10.0624808423686</v>
       </c>
       <c r="D21">
-        <v>7.021197699301342</v>
+        <v>8.540254490489708</v>
       </c>
       <c r="E21">
-        <v>9.723211011791708</v>
+        <v>13.59362204934279</v>
       </c>
       <c r="F21">
-        <v>27.01475284429835</v>
+        <v>37.15624860012134</v>
       </c>
       <c r="G21">
-        <v>2.073622333577799</v>
+        <v>3.675411230412837</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.72501388638714</v>
+        <v>28.77893822192872</v>
       </c>
       <c r="J21">
-        <v>5.940354341772841</v>
+        <v>10.30896087186124</v>
       </c>
       <c r="K21">
-        <v>25.06173507244269</v>
+        <v>19.2766069501698</v>
       </c>
       <c r="L21">
-        <v>6.117024107835927</v>
+        <v>10.35119577322868</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.5721766904892</v>
+        <v>18.04293921821443</v>
       </c>
       <c r="O21">
-        <v>18.73686041033204</v>
+        <v>28.28939523210069</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.24532415948868</v>
+        <v>10.11051567676556</v>
       </c>
       <c r="D22">
-        <v>7.199364719423383</v>
+        <v>8.571984118427476</v>
       </c>
       <c r="E22">
-        <v>9.902270445560031</v>
+        <v>13.60830338986795</v>
       </c>
       <c r="F22">
-        <v>27.49307440792376</v>
+        <v>37.14563402462242</v>
       </c>
       <c r="G22">
-        <v>2.069000346119595</v>
+        <v>3.673840100460109</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.00223825686176</v>
+        <v>28.75477928668412</v>
       </c>
       <c r="J22">
-        <v>5.951992384253225</v>
+        <v>10.29814764553058</v>
       </c>
       <c r="K22">
-        <v>25.9695580743973</v>
+        <v>19.58922305678942</v>
       </c>
       <c r="L22">
-        <v>6.146186806501327</v>
+        <v>10.34361240508411</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.53709403352374</v>
+        <v>18.02297705761661</v>
       </c>
       <c r="O22">
-        <v>18.95017191051741</v>
+        <v>28.24995785887953</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.112164605736844</v>
+        <v>10.08479053703453</v>
       </c>
       <c r="D23">
-        <v>7.104638627242742</v>
+        <v>8.554987384915661</v>
       </c>
       <c r="E23">
-        <v>9.80670405079481</v>
+        <v>13.6003214624461</v>
       </c>
       <c r="F23">
-        <v>27.23620428632196</v>
+        <v>37.15059663016945</v>
       </c>
       <c r="G23">
-        <v>2.071461189845625</v>
+        <v>3.674673034666506</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.85289541072155</v>
+        <v>28.76717147025646</v>
       </c>
       <c r="J23">
-        <v>5.945566476389932</v>
+        <v>10.30383542372234</v>
       </c>
       <c r="K23">
-        <v>25.4886724431498</v>
+        <v>19.42289278915947</v>
       </c>
       <c r="L23">
-        <v>6.130430687770618</v>
+        <v>10.34757699888594</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.55541350817011</v>
+        <v>18.03348538971461</v>
       </c>
       <c r="O23">
-        <v>18.8346349975804</v>
+        <v>28.2705013992576</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.596266836556142</v>
+        <v>9.989354437203582</v>
       </c>
       <c r="D24">
-        <v>6.738065006793508</v>
+        <v>8.492011858815868</v>
       </c>
       <c r="E24">
-        <v>9.444954740027645</v>
+        <v>13.57331926557492</v>
       </c>
       <c r="F24">
-        <v>26.29815431846901</v>
+        <v>37.18482089627521</v>
       </c>
       <c r="G24">
-        <v>2.080918734829844</v>
+        <v>3.677951125207767</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.31745159669808</v>
+        <v>28.82512137405907</v>
       </c>
       <c r="J24">
-        <v>5.925868337709068</v>
+        <v>10.32721210987679</v>
       </c>
       <c r="K24">
-        <v>23.58704139888296</v>
+        <v>18.78207553285703</v>
       </c>
       <c r="L24">
-        <v>6.074923643700271</v>
+        <v>10.36441357839625</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.63349145249409</v>
+        <v>18.07649164759493</v>
       </c>
       <c r="O24">
-        <v>18.43360391868082</v>
+        <v>28.35938241094975</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.01693976045634</v>
+        <v>9.891041670414403</v>
       </c>
       <c r="D25">
-        <v>6.327467825543738</v>
+        <v>8.427279065413122</v>
       </c>
       <c r="E25">
-        <v>9.056652493256189</v>
+        <v>13.55118455242691</v>
       </c>
       <c r="F25">
-        <v>25.36112421112485</v>
+        <v>37.25463997622996</v>
       </c>
       <c r="G25">
-        <v>2.091448428691019</v>
+        <v>3.681752780566412</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>18.80285603560677</v>
+        <v>28.91109410368405</v>
       </c>
       <c r="J25">
-        <v>5.9140806194754</v>
+        <v>10.35636046726722</v>
       </c>
       <c r="K25">
-        <v>21.36130678828293</v>
+        <v>18.07120100249183</v>
       </c>
       <c r="L25">
-        <v>6.023706823361909</v>
+        <v>10.3864807756313</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.73510151363446</v>
+        <v>18.12975589873738</v>
       </c>
       <c r="O25">
-        <v>18.07540956888286</v>
+        <v>28.47880149179923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.822975188313588</v>
+        <v>7.573120761438737</v>
       </c>
       <c r="D2">
-        <v>8.382557364165249</v>
+        <v>6.013911756616786</v>
       </c>
       <c r="E2">
-        <v>13.54097890451894</v>
+        <v>8.774005403852728</v>
       </c>
       <c r="F2">
-        <v>37.33424484278362</v>
+        <v>24.73556859114388</v>
       </c>
       <c r="G2">
-        <v>3.684782927488232</v>
+        <v>2.099517091383755</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.99449201422622</v>
+        <v>18.47619666335625</v>
       </c>
       <c r="J2">
-        <v>10.38122023858667</v>
+        <v>5.913093614233961</v>
       </c>
       <c r="K2">
-        <v>17.53470595995335</v>
+        <v>19.56934928130942</v>
       </c>
       <c r="L2">
-        <v>10.40610512897701</v>
+        <v>5.993180855044261</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.17491623888462</v>
+        <v>12.82379764259677</v>
       </c>
       <c r="O2">
-        <v>28.5868639829312</v>
+        <v>17.87142613621181</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.779702990359894</v>
+        <v>7.263166473890668</v>
       </c>
       <c r="D3">
-        <v>8.354175454606992</v>
+        <v>5.795573092489885</v>
       </c>
       <c r="E3">
-        <v>13.53789774736287</v>
+        <v>8.585398666384561</v>
       </c>
       <c r="F3">
-        <v>37.40571310126639</v>
+        <v>24.35154355019641</v>
       </c>
       <c r="G3">
-        <v>3.68698184167519</v>
+        <v>2.105197588630976</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>29.06349678656478</v>
+        <v>18.28619892343809</v>
       </c>
       <c r="J3">
-        <v>10.40019537623019</v>
+        <v>5.917006842490106</v>
       </c>
       <c r="K3">
-        <v>17.16509199144393</v>
+        <v>18.25789952961961</v>
       </c>
       <c r="L3">
-        <v>10.42151919379589</v>
+        <v>5.976841327186214</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.20924359476</v>
+        <v>12.89208091957561</v>
       </c>
       <c r="O3">
-        <v>28.67259474696727</v>
+        <v>17.7680783804357</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.754594240186213</v>
+        <v>7.06898897773587</v>
       </c>
       <c r="D4">
-        <v>8.337728429668791</v>
+        <v>5.659101621697855</v>
       </c>
       <c r="E4">
-        <v>13.53790823747973</v>
+        <v>8.471371586041318</v>
       </c>
       <c r="F4">
-        <v>37.45820806963913</v>
+        <v>24.13525112600698</v>
       </c>
       <c r="G4">
-        <v>3.688404093187684</v>
+        <v>2.108794870034686</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>29.11200529675742</v>
+        <v>18.18453871494463</v>
       </c>
       <c r="J4">
-        <v>10.4128981472917</v>
+        <v>5.921599629875407</v>
       </c>
       <c r="K4">
-        <v>16.93594555692027</v>
+        <v>17.45998903460253</v>
       </c>
       <c r="L4">
-        <v>10.43202919095558</v>
+        <v>5.968908004851201</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.23216165333249</v>
+        <v>12.93789162009977</v>
       </c>
       <c r="O4">
-        <v>28.7313746763993</v>
+        <v>17.72096866551511</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.744737042435887</v>
+        <v>6.989002730373469</v>
       </c>
       <c r="D5">
-        <v>8.33127683732034</v>
+        <v>5.602961754779567</v>
       </c>
       <c r="E5">
-        <v>13.53839243528994</v>
+        <v>8.42540236679374</v>
       </c>
       <c r="F5">
-        <v>37.48176154494237</v>
+        <v>24.05197269464509</v>
       </c>
       <c r="G5">
-        <v>3.689001862299768</v>
+        <v>2.110288964068077</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>29.13331372561631</v>
+        <v>18.14680333279443</v>
       </c>
       <c r="J5">
-        <v>10.41833953523385</v>
+        <v>5.92401174462935</v>
       </c>
       <c r="K5">
-        <v>16.84213479153787</v>
+        <v>17.12917446038814</v>
       </c>
       <c r="L5">
-        <v>10.43657546209402</v>
+        <v>5.966196180534119</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.24196463205231</v>
+        <v>12.95751616303384</v>
       </c>
       <c r="O5">
-        <v>28.75686867913954</v>
+        <v>17.7057460957947</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.743123112718152</v>
+        <v>6.97567289994115</v>
       </c>
       <c r="D6">
-        <v>8.330220820799717</v>
+        <v>5.593610441816848</v>
       </c>
       <c r="E6">
-        <v>13.53850186453122</v>
+        <v>8.417800757015961</v>
       </c>
       <c r="F6">
-        <v>37.48580297890222</v>
+        <v>24.03843653755161</v>
       </c>
       <c r="G6">
-        <v>3.689102221735029</v>
+        <v>2.110538777411426</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>29.13694494409394</v>
+        <v>18.14075787477</v>
       </c>
       <c r="J6">
-        <v>10.41925908433402</v>
+        <v>5.924444624578308</v>
       </c>
       <c r="K6">
-        <v>16.82653515485825</v>
+        <v>17.07365037934611</v>
       </c>
       <c r="L6">
-        <v>10.43734628526461</v>
+        <v>5.965777152171146</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.24362043724672</v>
+        <v>12.96083198927376</v>
       </c>
       <c r="O6">
-        <v>28.7611948890968</v>
+        <v>17.7034543935941</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.754459775268549</v>
+        <v>7.067913565533606</v>
       </c>
       <c r="D7">
-        <v>8.337640400521581</v>
+        <v>5.658346521317354</v>
       </c>
       <c r="E7">
-        <v>13.53791282240377</v>
+        <v>8.47074954672291</v>
       </c>
       <c r="F7">
-        <v>37.45851697523123</v>
+        <v>24.13410838206391</v>
       </c>
       <c r="G7">
-        <v>3.688412081183877</v>
+        <v>2.108814904993185</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>29.11228643509386</v>
+        <v>18.18401496585728</v>
       </c>
       <c r="J7">
-        <v>10.41297045865573</v>
+        <v>5.921629985334892</v>
       </c>
       <c r="K7">
-        <v>16.93468197602691</v>
+        <v>17.45556736992476</v>
       </c>
       <c r="L7">
-        <v>10.43208943667498</v>
+        <v>5.968869331591679</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.23229198127715</v>
+        <v>12.93815243753525</v>
       </c>
       <c r="O7">
-        <v>28.73171226391534</v>
+        <v>17.7207474576625</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.807756456248255</v>
+        <v>7.467114998284276</v>
       </c>
       <c r="D8">
-        <v>8.372570661390052</v>
+        <v>5.93917420497614</v>
       </c>
       <c r="E8">
-        <v>13.53952267929756</v>
+        <v>8.708634937125376</v>
       </c>
       <c r="F8">
-        <v>37.35709689474807</v>
+        <v>24.59908952798122</v>
       </c>
       <c r="G8">
-        <v>3.685526181537941</v>
+        <v>2.101453417873025</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>29.01700894063876</v>
+        <v>18.40752731427471</v>
       </c>
       <c r="J8">
-        <v>10.38754476218997</v>
+        <v>5.91398217928741</v>
       </c>
       <c r="K8">
-        <v>17.40779191889295</v>
+        <v>19.1271517866001</v>
       </c>
       <c r="L8">
-        <v>10.41120311376709</v>
+        <v>5.987107267304949</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.1863706871257</v>
+        <v>12.84652275093056</v>
       </c>
       <c r="O8">
-        <v>28.61514736458965</v>
+        <v>17.83231989724472</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.923509538118156</v>
+        <v>8.214951357105694</v>
       </c>
       <c r="D9">
-        <v>8.44864020605859</v>
+        <v>6.467660562158996</v>
       </c>
       <c r="E9">
-        <v>13.55769936182692</v>
+        <v>9.187062088345154</v>
       </c>
       <c r="F9">
-        <v>37.22673323183734</v>
+        <v>25.66675594428725</v>
       </c>
       <c r="G9">
-        <v>3.680436468497683</v>
+        <v>2.087854582638522</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>28.87900610832028</v>
+        <v>18.96794331159911</v>
       </c>
       <c r="J9">
-        <v>10.34601499378944</v>
+        <v>5.916827217087222</v>
       </c>
       <c r="K9">
-        <v>18.31296140968827</v>
+        <v>22.13463988841973</v>
       </c>
       <c r="L9">
-        <v>10.37852403491443</v>
+        <v>6.039825743988383</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.11089267965676</v>
+        <v>12.69864924183462</v>
       </c>
       <c r="O9">
-        <v>28.43543911175928</v>
+        <v>18.186488244135</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.01491003651341</v>
+        <v>8.738183528001557</v>
       </c>
       <c r="D10">
-        <v>8.508862641004185</v>
+        <v>6.838829631415233</v>
       </c>
       <c r="E10">
-        <v>13.58010211690467</v>
+        <v>9.543062106263262</v>
       </c>
       <c r="F10">
-        <v>37.17293884025679</v>
+        <v>26.54688742934745</v>
       </c>
       <c r="G10">
-        <v>3.677040578284438</v>
+        <v>2.078327560180682</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>28.80754246124745</v>
+        <v>19.45775003316188</v>
       </c>
       <c r="J10">
-        <v>10.32055835191111</v>
+        <v>5.930449173340848</v>
       </c>
       <c r="K10">
-        <v>18.95772206088191</v>
+        <v>24.11677639215447</v>
       </c>
       <c r="L10">
-        <v>10.35953712904453</v>
+        <v>6.089296243981359</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.06427903018037</v>
+        <v>12.61087683492237</v>
       </c>
       <c r="O10">
-        <v>28.33339986785056</v>
+        <v>18.53641638849529</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.05775805556041</v>
+        <v>8.969746290071983</v>
       </c>
       <c r="D11">
-        <v>8.53713652583478</v>
+        <v>7.003371255829424</v>
       </c>
       <c r="E11">
-        <v>13.59223184738417</v>
+        <v>9.705458748524478</v>
       </c>
       <c r="F11">
-        <v>37.15761475254154</v>
+        <v>26.96803500663308</v>
       </c>
       <c r="G11">
-        <v>3.675569510329285</v>
+        <v>2.074083312025414</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.78155760127</v>
+        <v>19.69814394903684</v>
       </c>
       <c r="J11">
-        <v>10.31007025589733</v>
+        <v>5.939295719830386</v>
       </c>
       <c r="K11">
-        <v>19.2453838232509</v>
+        <v>24.97009931687107</v>
       </c>
       <c r="L11">
-        <v>10.35198463757825</v>
+        <v>6.114217918505014</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.04498357645402</v>
+        <v>12.57583440429941</v>
       </c>
       <c r="O11">
-        <v>28.29353072991332</v>
+        <v>18.71646140563909</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.0741560295952</v>
+        <v>9.056454322628486</v>
       </c>
       <c r="D12">
-        <v>8.547963714497078</v>
+        <v>7.065019689545404</v>
       </c>
       <c r="E12">
-        <v>13.59710123603893</v>
+        <v>9.766978864489296</v>
       </c>
       <c r="F12">
-        <v>37.15312865963802</v>
+        <v>27.13048794993163</v>
       </c>
       <c r="G12">
-        <v>3.675022999518517</v>
+        <v>2.07248805410969</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.77265769590366</v>
+        <v>19.79174346650607</v>
       </c>
       <c r="J12">
-        <v>10.3062553513282</v>
+        <v>5.943039025698253</v>
       </c>
       <c r="K12">
-        <v>19.35340628640979</v>
+        <v>25.28635875285429</v>
       </c>
       <c r="L12">
-        <v>10.3492802220711</v>
+        <v>6.124009460507237</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.0379507211161</v>
+        <v>12.56329954850214</v>
       </c>
       <c r="O12">
-        <v>28.27937791705068</v>
+        <v>18.78774057670651</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.07061693177053</v>
+        <v>9.037824475714974</v>
       </c>
       <c r="D13">
-        <v>8.545626621719963</v>
+        <v>7.051772523879145</v>
       </c>
       <c r="E13">
-        <v>13.59604028951372</v>
+        <v>9.753728942102216</v>
       </c>
       <c r="F13">
-        <v>37.15403623959605</v>
+        <v>27.09536877345131</v>
       </c>
       <c r="G13">
-        <v>3.67514023199384</v>
+        <v>2.072831105837775</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.77453261795155</v>
+        <v>19.77147035256506</v>
       </c>
       <c r="J13">
-        <v>10.30706999529135</v>
+        <v>5.942215145849292</v>
       </c>
       <c r="K13">
-        <v>19.33018361450271</v>
+        <v>25.21855112699161</v>
       </c>
       <c r="L13">
-        <v>10.34985575533726</v>
+        <v>6.121884815012897</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.03945320014583</v>
+        <v>12.56596592665319</v>
       </c>
       <c r="O13">
-        <v>28.2823839141112</v>
+        <v>18.77224993437855</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.05910373170789</v>
+        <v>8.976899703966371</v>
       </c>
       <c r="D14">
-        <v>8.538024904474023</v>
+        <v>7.008456544834823</v>
       </c>
       <c r="E14">
-        <v>13.59262693681271</v>
+        <v>9.710519782388266</v>
       </c>
       <c r="F14">
-        <v>37.15721928258385</v>
+        <v>26.98134059374275</v>
       </c>
       <c r="G14">
-        <v>3.675524337406103</v>
+        <v>2.073951835404225</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.78080655260352</v>
+        <v>19.70579276676963</v>
       </c>
       <c r="J14">
-        <v>10.30975326275946</v>
+        <v>5.93959572972423</v>
       </c>
       <c r="K14">
-        <v>19.25428964394726</v>
+        <v>24.99625550379755</v>
       </c>
       <c r="L14">
-        <v>10.35175902879623</v>
+        <v>6.115016336653232</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.04439949323781</v>
+        <v>12.5747882309792</v>
       </c>
       <c r="O14">
-        <v>28.29234741847331</v>
+        <v>18.72226290717661</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.05207370360026</v>
+        <v>8.93945258846275</v>
       </c>
       <c r="D15">
-        <v>8.533384147768444</v>
+        <v>6.98183722180085</v>
       </c>
       <c r="E15">
-        <v>13.59057203741853</v>
+        <v>9.684054915788796</v>
       </c>
       <c r="F15">
-        <v>37.15934050559068</v>
+        <v>26.91188186724031</v>
       </c>
       <c r="G15">
-        <v>3.675760985509562</v>
+        <v>2.074639841326023</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.78477198200259</v>
+        <v>19.66589883006149</v>
       </c>
       <c r="J15">
-        <v>10.31141723916183</v>
+        <v>5.938042852815986</v>
       </c>
       <c r="K15">
-        <v>19.20768126736604</v>
+        <v>24.85920001676171</v>
       </c>
       <c r="L15">
-        <v>10.3529450826612</v>
+        <v>6.110855526802997</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.04746489325187</v>
+        <v>12.58028885983762</v>
       </c>
       <c r="O15">
-        <v>28.29857347471572</v>
+        <v>18.69205098127518</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.01213449783061</v>
+        <v>8.722915797544889</v>
       </c>
       <c r="D16">
-        <v>8.507032056994602</v>
+        <v>6.827986171673062</v>
       </c>
       <c r="E16">
-        <v>13.57934819819574</v>
+        <v>9.532454591837249</v>
       </c>
       <c r="F16">
-        <v>37.17412451170588</v>
+        <v>26.51978130042277</v>
       </c>
       <c r="G16">
-        <v>3.677138195326813</v>
+        <v>2.078606656402691</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>28.80937208115586</v>
+        <v>19.44239695272086</v>
       </c>
       <c r="J16">
-        <v>10.32126572238924</v>
+        <v>5.929925392613219</v>
       </c>
       <c r="K16">
-        <v>18.93880066282558</v>
+        <v>24.06004326179783</v>
       </c>
       <c r="L16">
-        <v>10.36005249301856</v>
+        <v>6.087716762354721</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.06557839877322</v>
+        <v>12.61326797072693</v>
       </c>
       <c r="O16">
-        <v>28.33613745631481</v>
+        <v>18.52507853101539</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.987951067927577</v>
+        <v>8.588383720226229</v>
       </c>
       <c r="D17">
-        <v>8.491086784587898</v>
+        <v>6.732469646805922</v>
       </c>
       <c r="E17">
-        <v>13.57295743552612</v>
+        <v>9.439537805219352</v>
       </c>
       <c r="F17">
-        <v>37.1855381114568</v>
+        <v>26.28455133083922</v>
       </c>
       <c r="G17">
-        <v>3.678001917592906</v>
+        <v>2.081062477064848</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>28.82613587210236</v>
+        <v>19.30981784499643</v>
       </c>
       <c r="J17">
-        <v>10.3275869498716</v>
+        <v>5.925632897081438</v>
       </c>
       <c r="K17">
-        <v>18.77233443220189</v>
+        <v>23.55745531584226</v>
       </c>
       <c r="L17">
-        <v>10.36469018258864</v>
+        <v>6.074145715607032</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.07717901191711</v>
+        <v>12.63477327164094</v>
       </c>
       <c r="O17">
-        <v>28.36086132500795</v>
+        <v>18.42806294893584</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.974161515585726</v>
+        <v>8.510398917313617</v>
       </c>
       <c r="D18">
-        <v>8.48199852409563</v>
+        <v>6.677127846824779</v>
       </c>
       <c r="E18">
-        <v>13.56946427861545</v>
+        <v>9.386139120853361</v>
       </c>
       <c r="F18">
-        <v>37.19296385459406</v>
+        <v>26.15120938880879</v>
       </c>
       <c r="G18">
-        <v>3.678505651648201</v>
+        <v>2.082483497877763</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>28.83639197318197</v>
+        <v>19.23521438119155</v>
       </c>
       <c r="J18">
-        <v>10.33132558279163</v>
+        <v>5.923412629590588</v>
       </c>
       <c r="K18">
-        <v>18.67606170628003</v>
+        <v>23.2638231945688</v>
       </c>
       <c r="L18">
-        <v>10.36745978741465</v>
+        <v>6.066567138233487</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.08403113101572</v>
+        <v>12.6476003420697</v>
       </c>
       <c r="O18">
-        <v>28.37569809844274</v>
+        <v>18.37422017380896</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.969513546337295</v>
+        <v>8.483892333696579</v>
       </c>
       <c r="D19">
-        <v>8.4789358321877</v>
+        <v>6.658322168435468</v>
       </c>
       <c r="E19">
-        <v>13.56831300202824</v>
+        <v>9.368068210774343</v>
       </c>
       <c r="F19">
-        <v>37.19562589532735</v>
+        <v>26.10639844710597</v>
       </c>
       <c r="G19">
-        <v>3.678677401578481</v>
+        <v>2.082966118315145</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>28.83996990930386</v>
+        <v>19.21023746581126</v>
       </c>
       <c r="J19">
-        <v>10.33260909157892</v>
+        <v>5.922703225355286</v>
       </c>
       <c r="K19">
-        <v>18.64337819138977</v>
+        <v>23.16361940689601</v>
       </c>
       <c r="L19">
-        <v>10.36841508175893</v>
+        <v>6.06403997047527</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.08638203336192</v>
+        <v>12.65202104299485</v>
       </c>
       <c r="O19">
-        <v>28.38082732226991</v>
+        <v>18.35632305504676</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.990513076650585</v>
+        <v>8.602767960497069</v>
       </c>
       <c r="D20">
-        <v>8.492775633621971</v>
+        <v>6.742679593506199</v>
       </c>
       <c r="E20">
-        <v>13.57361885907849</v>
+        <v>9.449424648687119</v>
       </c>
       <c r="F20">
-        <v>37.18423399713914</v>
+        <v>26.30938960582569</v>
       </c>
       <c r="G20">
-        <v>3.677909254605431</v>
+        <v>2.080800177912876</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>28.82428777580661</v>
+        <v>19.32375978414385</v>
       </c>
       <c r="J20">
-        <v>10.32690340444959</v>
+        <v>5.926064017272363</v>
       </c>
       <c r="K20">
-        <v>18.79011018620272</v>
+        <v>23.61142771268907</v>
       </c>
       <c r="L20">
-        <v>10.36418592582523</v>
+        <v>6.075566821740678</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.07592550774068</v>
+        <v>12.63243638858589</v>
       </c>
       <c r="O20">
-        <v>28.3581656239575</v>
+        <v>18.43818702675874</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.0624808423686</v>
+        <v>8.994821732762228</v>
       </c>
       <c r="D21">
-        <v>8.540254490489708</v>
+        <v>7.021197699301378</v>
       </c>
       <c r="E21">
-        <v>13.59362204934279</v>
+        <v>9.723211011791674</v>
       </c>
       <c r="F21">
-        <v>37.15624860012134</v>
+        <v>27.01475284429836</v>
       </c>
       <c r="G21">
-        <v>3.675411230412837</v>
+        <v>2.073622333578069</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.77893822192872</v>
+        <v>19.72501388638716</v>
       </c>
       <c r="J21">
-        <v>10.30896087186124</v>
+        <v>5.940354341772781</v>
       </c>
       <c r="K21">
-        <v>19.2766069501698</v>
+        <v>25.06173507244266</v>
       </c>
       <c r="L21">
-        <v>10.35119577322868</v>
+        <v>6.11702410783591</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.04293921821443</v>
+        <v>12.57217669048924</v>
       </c>
       <c r="O21">
-        <v>28.28939523210069</v>
+        <v>18.73686041033206</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.11051567676556</v>
+        <v>9.245324159488703</v>
       </c>
       <c r="D22">
-        <v>8.571984118427476</v>
+        <v>7.199364719423339</v>
       </c>
       <c r="E22">
-        <v>13.60830338986795</v>
+        <v>9.902270445560092</v>
       </c>
       <c r="F22">
-        <v>37.14563402462242</v>
+        <v>27.49307440792379</v>
       </c>
       <c r="G22">
-        <v>3.673840100460109</v>
+        <v>2.069000346119595</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>28.75477928668412</v>
+        <v>20.00223825686181</v>
       </c>
       <c r="J22">
-        <v>10.29814764553058</v>
+        <v>5.951992384253304</v>
       </c>
       <c r="K22">
-        <v>19.58922305678942</v>
+        <v>25.96955807439726</v>
       </c>
       <c r="L22">
-        <v>10.34361240508411</v>
+        <v>6.14618680650131</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.02297705761661</v>
+        <v>12.53709403352373</v>
       </c>
       <c r="O22">
-        <v>28.24995785887953</v>
+        <v>18.95017191051745</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.08479053703453</v>
+        <v>9.112164605736911</v>
       </c>
       <c r="D23">
-        <v>8.554987384915661</v>
+        <v>7.10463862724272</v>
       </c>
       <c r="E23">
-        <v>13.6003214624461</v>
+        <v>9.80670405079481</v>
       </c>
       <c r="F23">
-        <v>37.15059663016945</v>
+        <v>27.23620428632192</v>
       </c>
       <c r="G23">
-        <v>3.674673034666506</v>
+        <v>2.071461189845626</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.76717147025646</v>
+        <v>19.85289541072156</v>
       </c>
       <c r="J23">
-        <v>10.30383542372234</v>
+        <v>5.94556647638996</v>
       </c>
       <c r="K23">
-        <v>19.42289278915947</v>
+        <v>25.48867244314981</v>
       </c>
       <c r="L23">
-        <v>10.34757699888594</v>
+        <v>6.130430687770576</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.03348538971461</v>
+        <v>12.5554135081701</v>
       </c>
       <c r="O23">
-        <v>28.2705013992576</v>
+        <v>18.8346349975804</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>9.989354437203582</v>
+        <v>8.596266836556239</v>
       </c>
       <c r="D24">
-        <v>8.492011858815868</v>
+        <v>6.738065006793493</v>
       </c>
       <c r="E24">
-        <v>13.57331926557492</v>
+        <v>9.444954740027635</v>
       </c>
       <c r="F24">
-        <v>37.18482089627521</v>
+        <v>26.29815431846896</v>
       </c>
       <c r="G24">
-        <v>3.677951125207767</v>
+        <v>2.080918734829844</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>28.82512137405907</v>
+        <v>19.31745159669808</v>
       </c>
       <c r="J24">
-        <v>10.32721210987679</v>
+        <v>5.925868337709093</v>
       </c>
       <c r="K24">
-        <v>18.78207553285703</v>
+        <v>23.587041398883</v>
       </c>
       <c r="L24">
-        <v>10.36441357839625</v>
+        <v>6.074923643700195</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.07649164759493</v>
+        <v>12.63349145249409</v>
       </c>
       <c r="O24">
-        <v>28.35938241094975</v>
+        <v>18.43360391868079</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.891041670414403</v>
+        <v>8.016939760456333</v>
       </c>
       <c r="D25">
-        <v>8.427279065413122</v>
+        <v>6.327467825543691</v>
       </c>
       <c r="E25">
-        <v>13.55118455242691</v>
+        <v>9.056652493256141</v>
       </c>
       <c r="F25">
-        <v>37.25463997622996</v>
+        <v>25.36112421112463</v>
       </c>
       <c r="G25">
-        <v>3.681752780566412</v>
+        <v>2.091448428690885</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>28.91109410368405</v>
+        <v>18.80285603560663</v>
       </c>
       <c r="J25">
-        <v>10.35636046726722</v>
+        <v>5.914080619475428</v>
       </c>
       <c r="K25">
-        <v>18.07120100249183</v>
+        <v>21.36130678828298</v>
       </c>
       <c r="L25">
-        <v>10.3864807756313</v>
+        <v>6.023706823361857</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.12975589873738</v>
+        <v>12.73510151363443</v>
       </c>
       <c r="O25">
-        <v>28.47880149179923</v>
+        <v>18.0754095688827</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.573120761438737</v>
+        <v>5.544382448789082</v>
       </c>
       <c r="D2">
-        <v>6.013911756616786</v>
+        <v>2.627640909833028</v>
       </c>
       <c r="E2">
-        <v>8.774005403852728</v>
+        <v>30.5721849307421</v>
       </c>
       <c r="F2">
-        <v>24.73556859114388</v>
+        <v>26.37721881889865</v>
       </c>
       <c r="G2">
-        <v>2.099517091383755</v>
+        <v>38.51399770891903</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.939028256468398</v>
       </c>
       <c r="I2">
-        <v>18.47619666335625</v>
+        <v>5.314293923307466</v>
       </c>
       <c r="J2">
-        <v>5.913093614233961</v>
+        <v>10.93316990959804</v>
       </c>
       <c r="K2">
-        <v>19.56934928130942</v>
+        <v>20.04216673137243</v>
       </c>
       <c r="L2">
-        <v>5.993180855044261</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.82379764259677</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>17.87142613621181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25.60720851682374</v>
+      </c>
+      <c r="Q2">
+        <v>20.66292477212804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.263166473890668</v>
+        <v>5.37552236360955</v>
       </c>
       <c r="D3">
-        <v>5.795573092489885</v>
+        <v>2.569302684655281</v>
       </c>
       <c r="E3">
-        <v>8.585398666384561</v>
+        <v>28.69356076518115</v>
       </c>
       <c r="F3">
-        <v>24.35154355019641</v>
+        <v>24.85463809148047</v>
       </c>
       <c r="G3">
-        <v>2.105197588630976</v>
+        <v>36.08229525829504</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.677097306226549</v>
       </c>
       <c r="I3">
-        <v>18.28619892343809</v>
+        <v>5.096976673304781</v>
       </c>
       <c r="J3">
-        <v>5.917006842490106</v>
+        <v>10.49345327942718</v>
       </c>
       <c r="K3">
-        <v>18.25789952961961</v>
+        <v>19.03458603149356</v>
       </c>
       <c r="L3">
-        <v>5.976841327186214</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.89208091957561</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>17.7680783804357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="Q3">
+        <v>19.57288254848521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.06898897773587</v>
+        <v>5.266190348110105</v>
       </c>
       <c r="D4">
-        <v>5.659101621697855</v>
+        <v>2.53178034959452</v>
       </c>
       <c r="E4">
-        <v>8.471371586041318</v>
+        <v>27.47847062033183</v>
       </c>
       <c r="F4">
-        <v>24.13525112600698</v>
+        <v>23.87611272873085</v>
       </c>
       <c r="G4">
-        <v>2.108794870034686</v>
+        <v>34.50789663690178</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.510680841678509</v>
       </c>
       <c r="I4">
-        <v>18.18453871494463</v>
+        <v>4.958933321592146</v>
       </c>
       <c r="J4">
-        <v>5.921599629875407</v>
+        <v>10.21570616646561</v>
       </c>
       <c r="K4">
-        <v>17.45998903460253</v>
+        <v>18.38860385495844</v>
       </c>
       <c r="L4">
-        <v>5.968908004851201</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.93789162009977</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>17.72096866551511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="Q4">
+        <v>18.87500756220334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.989002730373469</v>
+        <v>5.213623099491154</v>
       </c>
       <c r="D5">
-        <v>5.602961754779567</v>
+        <v>2.516471119550096</v>
       </c>
       <c r="E5">
-        <v>8.42540236679374</v>
+        <v>26.96736285223844</v>
       </c>
       <c r="F5">
-        <v>24.05197269464509</v>
+        <v>23.45706194980906</v>
       </c>
       <c r="G5">
-        <v>2.110288964068077</v>
+        <v>33.82873326937455</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.441178412415572</v>
       </c>
       <c r="I5">
-        <v>18.14680333279443</v>
+        <v>4.900945436121043</v>
       </c>
       <c r="J5">
-        <v>5.92401174462935</v>
+        <v>10.09716102203775</v>
       </c>
       <c r="K5">
-        <v>17.12917446038814</v>
+        <v>18.10714859802562</v>
       </c>
       <c r="L5">
-        <v>5.966196180534119</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.95751616303384</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>17.7057460957947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="Q5">
+        <v>18.57546617947845</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.97567289994115</v>
+        <v>5.196790008902246</v>
       </c>
       <c r="D6">
-        <v>5.593610441816848</v>
+        <v>2.514408982358471</v>
       </c>
       <c r="E6">
-        <v>8.417800757015961</v>
+        <v>26.88095200143696</v>
       </c>
       <c r="F6">
-        <v>24.03843653755161</v>
+        <v>23.3751038388643</v>
       </c>
       <c r="G6">
-        <v>2.110538777411426</v>
+        <v>33.69355655962855</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.429240386193188</v>
       </c>
       <c r="I6">
-        <v>18.14075787477</v>
+        <v>4.890685768346906</v>
       </c>
       <c r="J6">
-        <v>5.924444624578308</v>
+        <v>10.07303272946015</v>
       </c>
       <c r="K6">
-        <v>17.07365037934611</v>
+        <v>18.04584192859455</v>
       </c>
       <c r="L6">
-        <v>5.965777152171146</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.96083198927376</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>17.7034543935941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="Q6">
+        <v>18.51526348553345</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7.067913565533606</v>
+        <v>5.243706504296984</v>
       </c>
       <c r="D7">
-        <v>5.658346521317354</v>
+        <v>2.532957816924954</v>
       </c>
       <c r="E7">
-        <v>8.47074954672291</v>
+        <v>27.4700016065162</v>
       </c>
       <c r="F7">
-        <v>24.13410838206391</v>
+        <v>23.83908583891239</v>
       </c>
       <c r="G7">
-        <v>2.108814904993185</v>
+        <v>34.44225785265972</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.508910801107561</v>
       </c>
       <c r="I7">
-        <v>18.18401496585728</v>
+        <v>4.956488368024566</v>
       </c>
       <c r="J7">
-        <v>5.921629985334892</v>
+        <v>10.20241713293362</v>
       </c>
       <c r="K7">
-        <v>17.45556736992476</v>
+        <v>18.34676058203876</v>
       </c>
       <c r="L7">
-        <v>5.968869331591679</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.93815243753525</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>17.7207474576625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="Q7">
+        <v>18.84402980857483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.467114998284276</v>
+        <v>5.459403046328166</v>
       </c>
       <c r="D8">
-        <v>5.93917420497614</v>
+        <v>2.609719852009648</v>
       </c>
       <c r="E8">
-        <v>8.708634937125376</v>
+        <v>29.9351879654744</v>
       </c>
       <c r="F8">
-        <v>24.59908952798122</v>
+        <v>25.82262001458364</v>
       </c>
       <c r="G8">
-        <v>2.101453417873025</v>
+        <v>37.62314558417054</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.848782071509956</v>
       </c>
       <c r="I8">
-        <v>18.40752731427471</v>
+        <v>5.238056760464929</v>
       </c>
       <c r="J8">
-        <v>5.91398217928741</v>
+        <v>10.76845562908984</v>
       </c>
       <c r="K8">
-        <v>19.1271517866001</v>
+        <v>19.65305390474079</v>
       </c>
       <c r="L8">
-        <v>5.987107267304949</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.84652275093056</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>17.83231989724472</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="Q8">
+        <v>20.25961533408284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.214951357105694</v>
+        <v>5.874679194919461</v>
       </c>
       <c r="D9">
-        <v>6.467660562158996</v>
+        <v>2.744286939494712</v>
       </c>
       <c r="E9">
-        <v>9.187062088345154</v>
+        <v>34.28296431730301</v>
       </c>
       <c r="F9">
-        <v>25.66675594428725</v>
+        <v>29.40783256699692</v>
       </c>
       <c r="G9">
-        <v>2.087854582638522</v>
+        <v>43.30138041958838</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4.473626934658274</v>
       </c>
       <c r="I9">
-        <v>18.96794331159911</v>
+        <v>5.757934050372892</v>
       </c>
       <c r="J9">
-        <v>5.916827217087222</v>
+        <v>11.83142098881506</v>
       </c>
       <c r="K9">
-        <v>22.13463988841973</v>
+        <v>22.0518593127026</v>
       </c>
       <c r="L9">
-        <v>6.039825743988383</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.69864924183462</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.186488244135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>28.34722074380644</v>
+      </c>
+      <c r="Q9">
+        <v>22.84423503342395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8.738183528001557</v>
+        <v>6.144758162942895</v>
       </c>
       <c r="D10">
-        <v>6.838829631415233</v>
+        <v>2.845963465430324</v>
       </c>
       <c r="E10">
-        <v>9.543062106263262</v>
+        <v>36.30559892869273</v>
       </c>
       <c r="F10">
-        <v>26.54688742934745</v>
+        <v>31.67365319165627</v>
       </c>
       <c r="G10">
-        <v>2.078327560180682</v>
+        <v>46.82022708828708</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>4.868234678829888</v>
       </c>
       <c r="I10">
-        <v>19.45775003316188</v>
+        <v>6.109111404046751</v>
       </c>
       <c r="J10">
-        <v>5.930449173340848</v>
+        <v>12.51022632694187</v>
       </c>
       <c r="K10">
-        <v>24.11677639215447</v>
+        <v>23.55701512621387</v>
       </c>
       <c r="L10">
-        <v>6.089296243981359</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.61087683492237</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.53641638849529</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="Q10">
+        <v>24.46670837857884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>8.969746290071983</v>
+        <v>6.260886354734706</v>
       </c>
       <c r="D11">
-        <v>7.003371255829424</v>
+        <v>2.993593839954695</v>
       </c>
       <c r="E11">
-        <v>9.705458748524478</v>
+        <v>29.7674702816305</v>
       </c>
       <c r="F11">
-        <v>26.96803500663308</v>
+        <v>31.49881126212864</v>
       </c>
       <c r="G11">
-        <v>2.074083312025414</v>
+        <v>46.29048801346336</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>5.147287100599941</v>
       </c>
       <c r="I11">
-        <v>19.69814394903684</v>
+        <v>6.180487893461086</v>
       </c>
       <c r="J11">
-        <v>5.939295719830386</v>
+        <v>12.35364840010453</v>
       </c>
       <c r="K11">
-        <v>24.97009931687107</v>
+        <v>23.34397792069072</v>
       </c>
       <c r="L11">
-        <v>6.114217918505014</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.57583440429941</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.71646140563909</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="Q11">
+        <v>24.1656365638413</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.056454322628486</v>
+        <v>6.352961466552812</v>
       </c>
       <c r="D12">
-        <v>7.065019689545404</v>
+        <v>3.10780780748573</v>
       </c>
       <c r="E12">
-        <v>9.766978864489296</v>
+        <v>23.92986961181088</v>
       </c>
       <c r="F12">
-        <v>27.13048794993163</v>
+        <v>30.91572240384426</v>
       </c>
       <c r="G12">
-        <v>2.07248805410969</v>
+        <v>45.18066388679267</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.84077738367284</v>
       </c>
       <c r="I12">
-        <v>19.79174346650607</v>
+        <v>6.177293722740711</v>
       </c>
       <c r="J12">
-        <v>5.943039025698253</v>
+        <v>12.08946837886476</v>
       </c>
       <c r="K12">
-        <v>25.28635875285429</v>
+        <v>22.89434427510145</v>
       </c>
       <c r="L12">
-        <v>6.124009460507237</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.56329954850214</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.78774057670651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="Q12">
+        <v>23.60126975378309</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.037824475714974</v>
+        <v>6.403857961030781</v>
       </c>
       <c r="D13">
-        <v>7.051772523879145</v>
+        <v>3.203891541746411</v>
       </c>
       <c r="E13">
-        <v>9.753728942102216</v>
+        <v>18.22375363482876</v>
       </c>
       <c r="F13">
-        <v>27.09536877345131</v>
+        <v>29.92688475936879</v>
       </c>
       <c r="G13">
-        <v>2.072831105837775</v>
+        <v>43.45475828330429</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.75863476645035</v>
       </c>
       <c r="I13">
-        <v>19.77147035256506</v>
+        <v>6.115524723929164</v>
       </c>
       <c r="J13">
-        <v>5.942215145849292</v>
+        <v>11.70491257302741</v>
       </c>
       <c r="K13">
-        <v>25.21855112699161</v>
+        <v>22.17552511575856</v>
       </c>
       <c r="L13">
-        <v>6.121884815012897</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.56596592665319</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.77224993437855</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="Q13">
+        <v>22.75041195191756</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>8.976899703966371</v>
+        <v>6.41670930135369</v>
       </c>
       <c r="D14">
-        <v>7.008456544834823</v>
+        <v>3.26464813227674</v>
       </c>
       <c r="E14">
-        <v>9.710519782388266</v>
+        <v>14.42239140714775</v>
       </c>
       <c r="F14">
-        <v>26.98134059374275</v>
+        <v>29.03044257833472</v>
       </c>
       <c r="G14">
-        <v>2.073951835404225</v>
+        <v>41.9306494154293</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.497835435027049</v>
       </c>
       <c r="I14">
-        <v>19.70579276676963</v>
+        <v>6.046666296855047</v>
       </c>
       <c r="J14">
-        <v>5.93959572972423</v>
+        <v>11.37426986150417</v>
       </c>
       <c r="K14">
-        <v>24.99625550379755</v>
+        <v>21.5325941706931</v>
       </c>
       <c r="L14">
-        <v>6.115016336653232</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.5747882309792</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.72226290717661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="Q14">
+        <v>22.00778058720692</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>8.93945258846275</v>
+        <v>6.399484312172497</v>
       </c>
       <c r="D15">
-        <v>6.98183722180085</v>
+        <v>3.275210680300641</v>
       </c>
       <c r="E15">
-        <v>9.684054915788796</v>
+        <v>13.53262366678019</v>
       </c>
       <c r="F15">
-        <v>26.91188186724031</v>
+        <v>28.7127019603182</v>
       </c>
       <c r="G15">
-        <v>2.074639841326023</v>
+        <v>41.40422496480842</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.668285871979363</v>
       </c>
       <c r="I15">
-        <v>19.66589883006149</v>
+        <v>6.016144218052859</v>
       </c>
       <c r="J15">
-        <v>5.938042852815986</v>
+        <v>11.26410296141186</v>
       </c>
       <c r="K15">
-        <v>24.85920001676171</v>
+        <v>21.30488611426238</v>
       </c>
       <c r="L15">
-        <v>6.110855526802997</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.58028885983762</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.69205098127518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="Q15">
+        <v>21.75539921311437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>8.722915797544889</v>
+        <v>6.266695164796754</v>
       </c>
       <c r="D16">
-        <v>6.827986171673062</v>
+        <v>3.214277982150977</v>
       </c>
       <c r="E16">
-        <v>9.532454591837249</v>
+        <v>13.40506722073773</v>
       </c>
       <c r="F16">
-        <v>26.51978130042277</v>
+        <v>27.8868597769625</v>
       </c>
       <c r="G16">
-        <v>2.078606656402691</v>
+        <v>40.13792096153506</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.387905759373544</v>
       </c>
       <c r="I16">
-        <v>19.44239695272086</v>
+        <v>5.881102579197991</v>
       </c>
       <c r="J16">
-        <v>5.929925392613219</v>
+        <v>11.03140406897013</v>
       </c>
       <c r="K16">
-        <v>24.06004326179783</v>
+        <v>20.75926819686059</v>
       </c>
       <c r="L16">
-        <v>6.087716762354721</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.61326797072693</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>18.52507853101539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="Q16">
+        <v>21.18237574423987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.588383720226229</v>
+        <v>6.154013284785174</v>
       </c>
       <c r="D17">
-        <v>6.732469646805922</v>
+        <v>3.133395014371403</v>
       </c>
       <c r="E17">
-        <v>9.439537805219352</v>
+        <v>15.31729256177674</v>
       </c>
       <c r="F17">
-        <v>26.28455133083922</v>
+        <v>27.74272058675989</v>
       </c>
       <c r="G17">
-        <v>2.081062477064848</v>
+        <v>40.00103615799961</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.730118259060866</v>
       </c>
       <c r="I17">
-        <v>19.30981784499643</v>
+        <v>5.812869315247054</v>
       </c>
       <c r="J17">
-        <v>5.925632897081438</v>
+        <v>11.0333292430324</v>
       </c>
       <c r="K17">
-        <v>23.55745531584226</v>
+        <v>20.69066030834879</v>
       </c>
       <c r="L17">
-        <v>6.074145715607032</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.63477327164094</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>18.42806294893584</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="Q17">
+        <v>21.14927226329386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.510398917313617</v>
+        <v>6.074144767610267</v>
       </c>
       <c r="D18">
-        <v>6.677127846824779</v>
+        <v>3.028934949199574</v>
       </c>
       <c r="E18">
-        <v>9.386139120853361</v>
+        <v>19.61830749367494</v>
       </c>
       <c r="F18">
-        <v>26.15120938880879</v>
+        <v>28.20005467788954</v>
       </c>
       <c r="G18">
-        <v>2.082483497877763</v>
+        <v>40.87890169574072</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.776398045558297</v>
       </c>
       <c r="I18">
-        <v>19.23521438119155</v>
+        <v>5.799179981414039</v>
       </c>
       <c r="J18">
-        <v>5.923412629590588</v>
+        <v>11.24555022042389</v>
       </c>
       <c r="K18">
-        <v>23.2638231945688</v>
+        <v>21.05637222351256</v>
       </c>
       <c r="L18">
-        <v>6.066567138233487</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.6476003420697</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>18.37422017380896</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="Q18">
+        <v>21.6004897811397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.483892333696579</v>
+        <v>5.998666364403304</v>
       </c>
       <c r="D19">
-        <v>6.658322168435468</v>
+        <v>2.926491924534886</v>
       </c>
       <c r="E19">
-        <v>9.368068210774343</v>
+        <v>25.70806211114201</v>
       </c>
       <c r="F19">
-        <v>26.10639844710597</v>
+        <v>29.05005443915598</v>
       </c>
       <c r="G19">
-        <v>2.082966118315145</v>
+        <v>42.40908171760586</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.926141515482591</v>
       </c>
       <c r="I19">
-        <v>19.21023746581126</v>
+        <v>5.836244901873638</v>
       </c>
       <c r="J19">
-        <v>5.922703225355286</v>
+        <v>11.58736638860863</v>
       </c>
       <c r="K19">
-        <v>23.16361940689601</v>
+        <v>21.67755275842075</v>
       </c>
       <c r="L19">
-        <v>6.06403997047527</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.65202104299485</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.35632305504676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="Q19">
+        <v>22.35645020872726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.602767960497069</v>
+        <v>6.016296251605457</v>
       </c>
       <c r="D20">
-        <v>6.742679593506199</v>
+        <v>2.824763026585305</v>
       </c>
       <c r="E20">
-        <v>9.449424648687119</v>
+        <v>35.74244576009632</v>
       </c>
       <c r="F20">
-        <v>26.30938960582569</v>
+        <v>31.00921163416999</v>
       </c>
       <c r="G20">
-        <v>2.080800177912876</v>
+        <v>45.77302081398872</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>4.761215080232896</v>
       </c>
       <c r="I20">
-        <v>19.32375978414385</v>
+        <v>6.014969541172395</v>
       </c>
       <c r="J20">
-        <v>5.926064017272363</v>
+        <v>12.30177188276152</v>
       </c>
       <c r="K20">
-        <v>23.61142771268907</v>
+        <v>23.06990740569764</v>
       </c>
       <c r="L20">
-        <v>6.075566821740678</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.63243638858589</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>18.43818702675874</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="Q20">
+        <v>23.97717716220098</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>8.994821732762228</v>
+        <v>6.226654174346296</v>
       </c>
       <c r="D21">
-        <v>7.021197699301378</v>
+        <v>2.88327300187732</v>
       </c>
       <c r="E21">
-        <v>9.723211011791674</v>
+        <v>38.56558044039048</v>
       </c>
       <c r="F21">
-        <v>27.01475284429836</v>
+        <v>32.89959890206883</v>
       </c>
       <c r="G21">
-        <v>2.073622333578069</v>
+        <v>48.74559480764903</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>5.119699629410159</v>
       </c>
       <c r="I21">
-        <v>19.72501388638716</v>
+        <v>6.295382266842846</v>
       </c>
       <c r="J21">
-        <v>5.940354341772781</v>
+        <v>12.89367692208537</v>
       </c>
       <c r="K21">
-        <v>25.06173507244266</v>
+        <v>24.35045101500365</v>
       </c>
       <c r="L21">
-        <v>6.11702410783591</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.57217669048924</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.73686041033206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="Q21">
+        <v>25.36669099145076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.245324159488703</v>
+        <v>6.38328316425035</v>
       </c>
       <c r="D22">
-        <v>7.199364719423339</v>
+        <v>2.923529842067066</v>
       </c>
       <c r="E22">
-        <v>9.902270445560092</v>
+        <v>39.90710831224135</v>
       </c>
       <c r="F22">
-        <v>27.49307440792379</v>
+        <v>34.05534858066547</v>
       </c>
       <c r="G22">
-        <v>2.069000346119595</v>
+        <v>50.54854914463552</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>5.330315614185522</v>
       </c>
       <c r="I22">
-        <v>20.00223825686181</v>
+        <v>6.471357866331674</v>
       </c>
       <c r="J22">
-        <v>5.951992384253304</v>
+        <v>13.25683925630087</v>
       </c>
       <c r="K22">
-        <v>25.96955807439726</v>
+        <v>25.14733816040682</v>
       </c>
       <c r="L22">
-        <v>6.14618680650131</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.53709403352373</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.95017191051745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="Q22">
+        <v>26.21340281523816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.112164605736911</v>
+        <v>6.32165212598531</v>
       </c>
       <c r="D23">
-        <v>7.10463862724272</v>
+        <v>2.900516835377132</v>
       </c>
       <c r="E23">
-        <v>9.80670405079481</v>
+        <v>39.19753365856555</v>
       </c>
       <c r="F23">
-        <v>27.23620428632192</v>
+        <v>33.47015579538238</v>
       </c>
       <c r="G23">
-        <v>2.071461189845626</v>
+        <v>49.64175596368942</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>5.219133185041578</v>
       </c>
       <c r="I23">
-        <v>19.85289541072156</v>
+        <v>6.378604738761077</v>
       </c>
       <c r="J23">
-        <v>5.94556647638996</v>
+        <v>13.07510737592905</v>
       </c>
       <c r="K23">
-        <v>25.48867244314981</v>
+        <v>24.75943011234623</v>
       </c>
       <c r="L23">
-        <v>6.130430687770576</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.5554135081701</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.8346349975804</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="Q23">
+        <v>25.78854072810102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.596266836556239</v>
+        <v>6.045565281280271</v>
       </c>
       <c r="D24">
-        <v>6.738065006793493</v>
+        <v>2.812965509664388</v>
       </c>
       <c r="E24">
-        <v>9.444954740027635</v>
+        <v>36.40149327567748</v>
       </c>
       <c r="F24">
-        <v>26.29815431846896</v>
+        <v>31.12781112707311</v>
       </c>
       <c r="G24">
-        <v>2.080918734829844</v>
+        <v>45.98945129726178</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>4.789030959358725</v>
       </c>
       <c r="I24">
-        <v>19.31745159669808</v>
+        <v>6.019633310498376</v>
       </c>
       <c r="J24">
-        <v>5.925868337709093</v>
+        <v>12.35066005098702</v>
       </c>
       <c r="K24">
-        <v>23.587041398883</v>
+        <v>23.18126973720305</v>
       </c>
       <c r="L24">
-        <v>6.074923643700195</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.63349145249409</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>18.43360391868079</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>29.91317649911916</v>
+      </c>
+      <c r="Q24">
+        <v>24.08444086801859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.016939760456333</v>
+        <v>5.731160976235516</v>
       </c>
       <c r="D25">
-        <v>6.327467825543691</v>
+        <v>2.711863836442635</v>
       </c>
       <c r="E25">
-        <v>9.056652493256141</v>
+        <v>33.15644430283914</v>
       </c>
       <c r="F25">
-        <v>25.36112421112463</v>
+        <v>28.42857060996925</v>
       </c>
       <c r="G25">
-        <v>2.091448428690885</v>
+        <v>41.74940161539936</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>4.307597573359909</v>
       </c>
       <c r="I25">
-        <v>18.80285603560663</v>
+        <v>5.618687000784193</v>
       </c>
       <c r="J25">
-        <v>5.914080619475428</v>
+        <v>11.53269335845707</v>
       </c>
       <c r="K25">
-        <v>21.36130678828298</v>
+        <v>21.36816807918043</v>
       </c>
       <c r="L25">
-        <v>6.023706823361857</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.73510151363443</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.0754095688827</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="Q25">
+        <v>22.1291211239405</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_34/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,37 +436,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.544382448789082</v>
+        <v>5.168714830990235</v>
       </c>
       <c r="D2">
-        <v>2.627640909833028</v>
+        <v>2.832577886512312</v>
       </c>
       <c r="E2">
-        <v>30.5721849307421</v>
+        <v>30.3418042041248</v>
       </c>
       <c r="F2">
-        <v>26.37721881889865</v>
+        <v>24.93537353215631</v>
       </c>
       <c r="G2">
-        <v>38.51399770891903</v>
+        <v>35.57187818884285</v>
       </c>
       <c r="H2">
-        <v>3.939028256468398</v>
+        <v>3.815906214632009</v>
       </c>
       <c r="I2">
-        <v>5.314293923307466</v>
+        <v>5.012416653883338</v>
       </c>
       <c r="J2">
-        <v>10.93316990959804</v>
+        <v>11.09216913774543</v>
       </c>
       <c r="K2">
-        <v>20.04216673137243</v>
+        <v>18.35171911831695</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.22708313114268</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>11.91912008692669</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,13 +475,19 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25.60720851682374</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>20.66292477212804</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>25.60720851682176</v>
+      </c>
+      <c r="S2">
+        <v>19.46622819124558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,37 +495,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.37552236360955</v>
+        <v>5.019956734941259</v>
       </c>
       <c r="D3">
-        <v>2.569302684655281</v>
+        <v>2.749616652144225</v>
       </c>
       <c r="E3">
-        <v>28.69356076518115</v>
+        <v>28.48474368283366</v>
       </c>
       <c r="F3">
-        <v>24.85463809148047</v>
+        <v>23.58498914302569</v>
       </c>
       <c r="G3">
-        <v>36.08229525829504</v>
+        <v>33.3876293569799</v>
       </c>
       <c r="H3">
-        <v>3.677097306226549</v>
+        <v>3.567553254353047</v>
       </c>
       <c r="I3">
-        <v>5.096976673304781</v>
+        <v>4.829535685370952</v>
       </c>
       <c r="J3">
-        <v>10.49345327942718</v>
+        <v>10.72513252484485</v>
       </c>
       <c r="K3">
-        <v>19.03458603149356</v>
+        <v>17.55193906632081</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.94713423516432</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.90578094235194</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,13 +534,19 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>24.22561817997339</v>
       </c>
-      <c r="Q3">
-        <v>19.57288254848521</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>18.52666244721497</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,37 +554,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.266190348110105</v>
+        <v>4.926731024044217</v>
       </c>
       <c r="D4">
-        <v>2.53178034959452</v>
+        <v>2.696751500292883</v>
       </c>
       <c r="E4">
-        <v>27.47847062033183</v>
+        <v>27.28308158670498</v>
       </c>
       <c r="F4">
-        <v>23.87611272873085</v>
+        <v>22.71741723971795</v>
       </c>
       <c r="G4">
-        <v>34.50789663690178</v>
+        <v>31.97335122434481</v>
       </c>
       <c r="H4">
-        <v>3.510680841678509</v>
+        <v>3.409614313723236</v>
       </c>
       <c r="I4">
-        <v>4.958933321592146</v>
+        <v>4.713303921177767</v>
       </c>
       <c r="J4">
-        <v>10.21570616646561</v>
+        <v>10.4924254464805</v>
       </c>
       <c r="K4">
-        <v>18.38860385495844</v>
+        <v>17.03927130959845</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.7628740696786</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.25719549246723</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,13 +593,19 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>23.33595077662917</v>
       </c>
-      <c r="Q4">
-        <v>18.87500756220334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>17.92541799321137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,37 +613,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.213623099491154</v>
+        <v>4.887469121216557</v>
       </c>
       <c r="D5">
-        <v>2.516471119550096</v>
+        <v>2.675362203342601</v>
       </c>
       <c r="E5">
-        <v>26.96736285223844</v>
+        <v>26.77757276268349</v>
       </c>
       <c r="F5">
-        <v>23.45706194980906</v>
+        <v>22.34522272460727</v>
       </c>
       <c r="G5">
-        <v>33.82873326937455</v>
+        <v>31.36188657489457</v>
       </c>
       <c r="H5">
-        <v>3.441178412415572</v>
+        <v>3.343634166071849</v>
       </c>
       <c r="I5">
-        <v>4.900945436121043</v>
+        <v>4.664626211671821</v>
       </c>
       <c r="J5">
-        <v>10.09716102203775</v>
+        <v>10.39259117273523</v>
       </c>
       <c r="K5">
-        <v>18.10714859802562</v>
+        <v>16.8141611589381</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.67669119357859</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.977975475997917</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,13 +652,19 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>22.96331756195408</v>
       </c>
-      <c r="Q5">
-        <v>18.57546617947845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>17.6666362269066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,37 +672,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.196790008902246</v>
+        <v>4.880063784960186</v>
       </c>
       <c r="D6">
-        <v>2.514408982358471</v>
+        <v>2.672561538194987</v>
       </c>
       <c r="E6">
-        <v>26.88095200143696</v>
+        <v>26.69217591634743</v>
       </c>
       <c r="F6">
-        <v>23.3751038388643</v>
+        <v>22.27154440562359</v>
       </c>
       <c r="G6">
-        <v>33.69355655962855</v>
+        <v>31.23858713716338</v>
       </c>
       <c r="H6">
-        <v>3.429240386193188</v>
+        <v>3.332318494522819</v>
       </c>
       <c r="I6">
-        <v>4.890685768346906</v>
+        <v>4.656257656567271</v>
       </c>
       <c r="J6">
-        <v>10.07303272946015</v>
+        <v>10.37192628195667</v>
       </c>
       <c r="K6">
-        <v>18.04584192859455</v>
+        <v>16.76307164343091</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.65244891692447</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.920448125477005</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,13 +711,19 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>22.90084339962192</v>
       </c>
-      <c r="Q6">
-        <v>18.51526348553345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>17.61368875186736</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.243706504296984</v>
+        <v>4.923767483505764</v>
       </c>
       <c r="D7">
-        <v>2.532957816924954</v>
+        <v>2.699837929398679</v>
       </c>
       <c r="E7">
-        <v>27.4700016065162</v>
+        <v>27.27413652195997</v>
       </c>
       <c r="F7">
-        <v>23.83908583891239</v>
+        <v>22.66381214856511</v>
       </c>
       <c r="G7">
-        <v>34.44225785265972</v>
+        <v>32.01959125395151</v>
       </c>
       <c r="H7">
-        <v>3.508910801107561</v>
+        <v>3.407584992649177</v>
       </c>
       <c r="I7">
-        <v>4.956488368024566</v>
+        <v>4.711183720044462</v>
       </c>
       <c r="J7">
-        <v>10.20241713293362</v>
+        <v>10.41615626430342</v>
       </c>
       <c r="K7">
-        <v>18.34676058203876</v>
+        <v>16.98800907675828</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.72680451627812</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.21453606965325</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,13 +770,19 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>23.33096569062624</v>
       </c>
-      <c r="Q7">
-        <v>18.84402980857483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>17.88046330612166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,37 +790,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.459403046328166</v>
+        <v>5.115024700481002</v>
       </c>
       <c r="D8">
-        <v>2.609719852009648</v>
+        <v>2.811342651320737</v>
       </c>
       <c r="E8">
-        <v>29.9351879654744</v>
+        <v>29.71018310294977</v>
       </c>
       <c r="F8">
-        <v>25.82262001458364</v>
+        <v>24.38356672214964</v>
       </c>
       <c r="G8">
-        <v>37.62314558417054</v>
+        <v>35.10277172766822</v>
       </c>
       <c r="H8">
-        <v>3.848782071509956</v>
+        <v>3.729197048628224</v>
       </c>
       <c r="I8">
-        <v>5.238056760464929</v>
+        <v>4.946936293715321</v>
       </c>
       <c r="J8">
-        <v>10.76845562908984</v>
+        <v>10.74916467806397</v>
       </c>
       <c r="K8">
-        <v>19.65305390474079</v>
+        <v>17.99708526503732</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.07343435157747</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.50851803006933</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,13 +829,19 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>25.1395913014106</v>
       </c>
-      <c r="Q8">
-        <v>20.25961533408284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>19.06633852152634</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,37 +849,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.874679194919461</v>
+        <v>5.47895882111056</v>
       </c>
       <c r="D9">
-        <v>2.744286939494712</v>
+        <v>3.00609846386237</v>
       </c>
       <c r="E9">
-        <v>34.28296431730301</v>
+        <v>34.0040564752462</v>
       </c>
       <c r="F9">
-        <v>29.40783256699692</v>
+        <v>27.55901408581999</v>
       </c>
       <c r="G9">
-        <v>43.30138041958838</v>
+        <v>40.24957434353632</v>
       </c>
       <c r="H9">
-        <v>4.473626934658274</v>
+        <v>4.320453139742797</v>
       </c>
       <c r="I9">
-        <v>5.757934050372892</v>
+        <v>5.383020590956967</v>
       </c>
       <c r="J9">
-        <v>11.83142098881506</v>
+        <v>11.59415195476497</v>
       </c>
       <c r="K9">
-        <v>22.0518593127026</v>
+        <v>19.90225100290614</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.73043991964544</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.93964201700124</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,13 +888,19 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>28.34722074380644</v>
       </c>
-      <c r="Q9">
-        <v>22.84423503342395</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>21.29101588900614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,37 +908,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.144758162942895</v>
+        <v>5.724535816556576</v>
       </c>
       <c r="D10">
-        <v>2.845963465430324</v>
+        <v>3.161567048896841</v>
       </c>
       <c r="E10">
-        <v>36.30559892869273</v>
+        <v>35.9834412217289</v>
       </c>
       <c r="F10">
-        <v>31.67365319165627</v>
+        <v>29.47654340595564</v>
       </c>
       <c r="G10">
-        <v>46.82022708828708</v>
+        <v>43.91817817082881</v>
       </c>
       <c r="H10">
-        <v>4.868234678829888</v>
+        <v>4.690019361062641</v>
       </c>
       <c r="I10">
-        <v>6.109111404046751</v>
+        <v>5.674475231360521</v>
       </c>
       <c r="J10">
-        <v>12.51022632694187</v>
+        <v>11.80565964252078</v>
       </c>
       <c r="K10">
-        <v>23.55701512621387</v>
+        <v>21.03125980151296</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>17.04551865995842</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>15.56627269949555</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,13 +947,19 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>30.48602834203865</v>
       </c>
-      <c r="Q10">
-        <v>24.46670837857884</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>22.60781540552443</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,37 +967,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.260886354734706</v>
+        <v>5.738856207734676</v>
       </c>
       <c r="D11">
-        <v>2.993593839954695</v>
+        <v>3.376503415844735</v>
       </c>
       <c r="E11">
-        <v>29.7674702816305</v>
+        <v>29.41170688154106</v>
       </c>
       <c r="F11">
-        <v>31.49881126212864</v>
+        <v>29.09808552450617</v>
       </c>
       <c r="G11">
-        <v>46.29048801346336</v>
+        <v>44.42132289977182</v>
       </c>
       <c r="H11">
-        <v>5.147287100599941</v>
+        <v>4.979194223565663</v>
       </c>
       <c r="I11">
-        <v>6.180487893461086</v>
+        <v>5.730290449169205</v>
       </c>
       <c r="J11">
-        <v>12.35364840010453</v>
+        <v>10.96425646449682</v>
       </c>
       <c r="K11">
-        <v>23.34397792069072</v>
+        <v>20.67156476846402</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.58200475687391</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.57640404013138</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,13 +1006,19 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>31.41016321374476</v>
       </c>
-      <c r="Q11">
-        <v>24.1656365638413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>22.13236163970328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,37 +1026,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.352961466552812</v>
+        <v>5.730587919759878</v>
       </c>
       <c r="D12">
-        <v>3.10780780748573</v>
+        <v>3.528275374839704</v>
       </c>
       <c r="E12">
-        <v>23.92986961181088</v>
+        <v>23.53958572807575</v>
       </c>
       <c r="F12">
-        <v>30.91572240384426</v>
+        <v>28.46331085357369</v>
       </c>
       <c r="G12">
-        <v>45.18066388679267</v>
+        <v>43.86236992286754</v>
       </c>
       <c r="H12">
-        <v>5.84077738367284</v>
+        <v>5.698477145862534</v>
       </c>
       <c r="I12">
-        <v>6.177293722740711</v>
+        <v>5.725655815797543</v>
       </c>
       <c r="J12">
-        <v>12.08946837886476</v>
+        <v>10.41910177539717</v>
       </c>
       <c r="K12">
-        <v>22.89434427510145</v>
+        <v>20.20856612667009</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>16.18098726536567</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.31897296887554</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,13 +1065,19 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>31.75299711977163</v>
       </c>
-      <c r="Q12">
-        <v>23.60126975378309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>21.52638610784966</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,37 +1085,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.403857961030781</v>
+        <v>5.7050150708962</v>
       </c>
       <c r="D13">
-        <v>3.203891541746411</v>
+        <v>3.63607512533968</v>
       </c>
       <c r="E13">
-        <v>18.22375363482876</v>
+        <v>17.78615481675582</v>
       </c>
       <c r="F13">
-        <v>29.92688475936879</v>
+        <v>27.57329722108517</v>
       </c>
       <c r="G13">
-        <v>43.45475828330429</v>
+        <v>42.15242419066227</v>
       </c>
       <c r="H13">
-        <v>6.75863476645035</v>
+        <v>6.644452009490003</v>
       </c>
       <c r="I13">
-        <v>6.115524723929164</v>
+        <v>5.675421605471765</v>
       </c>
       <c r="J13">
-        <v>11.70491257302741</v>
+        <v>10.17129918599399</v>
       </c>
       <c r="K13">
-        <v>22.17552511575856</v>
+        <v>19.60604135974902</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>15.77888558457485</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.81685762886789</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,13 +1124,19 @@
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>31.67947945617575</v>
       </c>
-      <c r="Q13">
-        <v>22.75041195191756</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>20.76627805117131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,37 +1144,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.41670930135369</v>
+        <v>5.680964824482724</v>
       </c>
       <c r="D14">
-        <v>3.26464813227674</v>
+        <v>3.692232825603259</v>
       </c>
       <c r="E14">
-        <v>14.42239140714775</v>
+        <v>13.93403089912102</v>
       </c>
       <c r="F14">
-        <v>29.03044257833472</v>
+        <v>26.81410473142706</v>
       </c>
       <c r="G14">
-        <v>41.9306494154293</v>
+        <v>40.40693037370306</v>
       </c>
       <c r="H14">
-        <v>7.497835435027049</v>
+        <v>7.401542737211078</v>
       </c>
       <c r="I14">
-        <v>6.046666296855047</v>
+        <v>5.620542740933974</v>
       </c>
       <c r="J14">
-        <v>11.37426986150417</v>
+        <v>10.11717425910028</v>
       </c>
       <c r="K14">
-        <v>21.5325941706931</v>
+        <v>19.10403047653256</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>15.48503067905658</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.3407696078165</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,13 +1183,19 @@
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>31.43851144188476</v>
       </c>
-      <c r="Q14">
-        <v>22.00778058720692</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>20.14710124500813</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,37 +1203,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.399484312172497</v>
+        <v>5.664814209632759</v>
       </c>
       <c r="D15">
-        <v>3.275210680300641</v>
+        <v>3.696630639810718</v>
       </c>
       <c r="E15">
-        <v>13.53262366678019</v>
+        <v>13.03169165720804</v>
       </c>
       <c r="F15">
-        <v>28.7127019603182</v>
+        <v>26.56019411816282</v>
       </c>
       <c r="G15">
-        <v>41.40422496480842</v>
+        <v>39.72729734213838</v>
       </c>
       <c r="H15">
-        <v>7.668285871979363</v>
+        <v>7.576610374196805</v>
       </c>
       <c r="I15">
-        <v>6.016144218052859</v>
+        <v>5.596678642348469</v>
       </c>
       <c r="J15">
-        <v>11.26410296141186</v>
+        <v>10.1522241264466</v>
       </c>
       <c r="K15">
-        <v>21.30488611426238</v>
+        <v>18.93754696245399</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>15.40282203725155</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>14.15927067730209</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,13 +1242,19 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>31.28998244549472</v>
       </c>
-      <c r="Q15">
-        <v>21.75539921311437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>19.95150288980643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.266695164796754</v>
+        <v>5.567877969371774</v>
       </c>
       <c r="D16">
-        <v>3.214277982150977</v>
+        <v>3.59285797823745</v>
       </c>
       <c r="E16">
-        <v>13.40506722073773</v>
+        <v>12.93741142208943</v>
       </c>
       <c r="F16">
-        <v>27.8868597769625</v>
+        <v>25.99477809136924</v>
       </c>
       <c r="G16">
-        <v>40.13792096153506</v>
+        <v>37.64702704704301</v>
       </c>
       <c r="H16">
-        <v>7.387905759373544</v>
+        <v>7.302422672814172</v>
       </c>
       <c r="I16">
-        <v>5.881102579197991</v>
+        <v>5.489238478282791</v>
       </c>
       <c r="J16">
-        <v>11.03140406897013</v>
+        <v>10.56853231143191</v>
       </c>
       <c r="K16">
-        <v>20.75926819686059</v>
+        <v>18.62270364541823</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>15.37475179187417</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.60890795903398</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,13 +1301,19 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>30.42464283346099</v>
       </c>
-      <c r="Q16">
-        <v>21.18237574423987</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>19.60644082156188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,37 +1321,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.154013284785174</v>
+        <v>5.504591154401131</v>
       </c>
       <c r="D17">
-        <v>3.133395014371403</v>
+        <v>3.486128629666545</v>
       </c>
       <c r="E17">
-        <v>15.31729256177674</v>
+        <v>14.90448168314691</v>
       </c>
       <c r="F17">
-        <v>27.74272058675989</v>
+        <v>25.9544574234348</v>
       </c>
       <c r="G17">
-        <v>40.00103615799961</v>
+        <v>37.13192550607241</v>
       </c>
       <c r="H17">
-        <v>6.730118259060866</v>
+        <v>6.640457964025629</v>
       </c>
       <c r="I17">
-        <v>5.812869315247054</v>
+        <v>5.434318491683903</v>
       </c>
       <c r="J17">
-        <v>11.0333292430324</v>
+        <v>10.84244928452044</v>
       </c>
       <c r="K17">
-        <v>20.69066030834879</v>
+        <v>18.63967098264063</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>15.50478419496457</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.43071201209129</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,13 +1360,19 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>29.88120505119274</v>
       </c>
-      <c r="Q17">
-        <v>21.14927226329386</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>19.66228044233361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,37 +1380,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.074144767610267</v>
+        <v>5.479507559360855</v>
       </c>
       <c r="D18">
-        <v>3.028934949199574</v>
+        <v>3.361570305187329</v>
       </c>
       <c r="E18">
-        <v>19.61830749367494</v>
+        <v>19.26480301481319</v>
       </c>
       <c r="F18">
-        <v>28.20005467788954</v>
+        <v>26.42036771994296</v>
       </c>
       <c r="G18">
-        <v>40.87890169574072</v>
+        <v>37.788642809831</v>
       </c>
       <c r="H18">
-        <v>5.776398045558297</v>
+        <v>5.670480696947259</v>
       </c>
       <c r="I18">
-        <v>5.799179981414039</v>
+        <v>5.422432891343861</v>
       </c>
       <c r="J18">
-        <v>11.24555022042389</v>
+        <v>11.14560389766838</v>
       </c>
       <c r="K18">
-        <v>21.05637222351256</v>
+        <v>18.99395318537403</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.82085667798957</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.60207791889732</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,13 +1419,19 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>29.5640428768043</v>
       </c>
-      <c r="Q18">
-        <v>21.6004897811397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>20.11743861533908</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,37 +1439,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.998666364403304</v>
+        <v>5.500832072078323</v>
       </c>
       <c r="D19">
-        <v>2.926491924534886</v>
+        <v>3.24135676629485</v>
       </c>
       <c r="E19">
-        <v>25.70806211114201</v>
+        <v>25.39294479929229</v>
       </c>
       <c r="F19">
-        <v>29.05005443915598</v>
+        <v>27.216435823825</v>
       </c>
       <c r="G19">
-        <v>42.40908171760586</v>
+        <v>39.16764995296839</v>
       </c>
       <c r="H19">
-        <v>4.926141515482591</v>
+        <v>4.792792527742444</v>
       </c>
       <c r="I19">
-        <v>5.836244901873638</v>
+        <v>5.453489857991157</v>
       </c>
       <c r="J19">
-        <v>11.58736638860863</v>
+        <v>11.47740556234702</v>
       </c>
       <c r="K19">
-        <v>21.67755275842075</v>
+        <v>19.539153631629</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.22680982486123</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.00623207685431</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,13 +1478,19 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>29.45587200880252</v>
       </c>
-      <c r="Q19">
-        <v>22.35645020872726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>20.82204823390569</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,37 +1498,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.016296251605457</v>
+        <v>5.665022558082404</v>
       </c>
       <c r="D20">
-        <v>2.824763026585305</v>
+        <v>3.124367713532642</v>
       </c>
       <c r="E20">
-        <v>35.74244576009632</v>
+        <v>35.43435011357058</v>
       </c>
       <c r="F20">
-        <v>31.00921163416999</v>
+        <v>28.95665171654997</v>
       </c>
       <c r="G20">
-        <v>45.77302081398872</v>
+        <v>42.53614094740221</v>
       </c>
       <c r="H20">
-        <v>4.761215080232896</v>
+        <v>4.591040718844829</v>
       </c>
       <c r="I20">
-        <v>6.014969541172395</v>
+        <v>5.600800125626971</v>
       </c>
       <c r="J20">
-        <v>12.30177188276152</v>
+        <v>11.91908917187877</v>
       </c>
       <c r="K20">
-        <v>23.06990740569764</v>
+        <v>20.68187312982291</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.92355254302439</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>15.10505939847353</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,13 +1537,19 @@
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>29.93953086719064</v>
       </c>
-      <c r="Q20">
-        <v>23.97717716220098</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>22.24528750219394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,37 +1557,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.226654174346296</v>
+        <v>5.86272068511194</v>
       </c>
       <c r="D21">
-        <v>2.88327300187732</v>
+        <v>3.241598542704263</v>
       </c>
       <c r="E21">
-        <v>38.56558044039048</v>
+        <v>38.21430357633702</v>
       </c>
       <c r="F21">
-        <v>32.89959890206883</v>
+        <v>30.30708928758848</v>
       </c>
       <c r="G21">
-        <v>48.74559480764903</v>
+        <v>47.13304889974609</v>
       </c>
       <c r="H21">
-        <v>5.119699629410159</v>
+        <v>4.922949451933428</v>
       </c>
       <c r="I21">
-        <v>6.295382266842846</v>
+        <v>5.823549376860567</v>
       </c>
       <c r="J21">
-        <v>12.89367692208537</v>
+        <v>11.13326864054459</v>
       </c>
       <c r="K21">
-        <v>24.35045101500365</v>
+        <v>21.47775109042889</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.12503370683239</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.27192931308093</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,13 +1596,19 @@
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>31.50948335633596</v>
       </c>
-      <c r="Q21">
-        <v>25.36669099145076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>23.16012040161037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,37 +1616,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>6.38328316425035</v>
+        <v>5.98391351191783</v>
       </c>
       <c r="D22">
-        <v>2.923529842067066</v>
+        <v>3.322711735124415</v>
       </c>
       <c r="E22">
-        <v>39.90710831224135</v>
+        <v>39.52717851818138</v>
       </c>
       <c r="F22">
-        <v>34.05534858066547</v>
+        <v>31.10888130276173</v>
       </c>
       <c r="G22">
-        <v>50.54854914463552</v>
+        <v>50.07898892261355</v>
       </c>
       <c r="H22">
-        <v>5.330315614185522</v>
+        <v>5.1167022431538</v>
       </c>
       <c r="I22">
-        <v>6.471357866331674</v>
+        <v>5.962002076339756</v>
       </c>
       <c r="J22">
-        <v>13.25683925630087</v>
+        <v>10.55408838658016</v>
       </c>
       <c r="K22">
-        <v>25.14733816040682</v>
+        <v>21.9603287071767</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>17.23556539117505</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.98491652016034</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,13 +1655,19 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>32.49403281050594</v>
       </c>
-      <c r="Q22">
-        <v>26.21340281523816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>23.69473322699606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,37 +1675,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>6.32165212598531</v>
+        <v>5.918807464015727</v>
       </c>
       <c r="D23">
-        <v>2.900516835377132</v>
+        <v>3.273471352095732</v>
       </c>
       <c r="E23">
-        <v>39.19753365856555</v>
+        <v>38.83382175925804</v>
       </c>
       <c r="F23">
-        <v>33.47015579538238</v>
+        <v>30.74705639266503</v>
       </c>
       <c r="G23">
-        <v>49.64175596368942</v>
+        <v>48.35489867142974</v>
       </c>
       <c r="H23">
-        <v>5.219133185041578</v>
+        <v>5.015068027394237</v>
       </c>
       <c r="I23">
-        <v>6.378604738761077</v>
+        <v>5.889194126820888</v>
       </c>
       <c r="J23">
-        <v>13.07510737592905</v>
+        <v>11.01029270727933</v>
       </c>
       <c r="K23">
-        <v>24.75943011234623</v>
+        <v>21.76319909480814</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.21855069436792</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.65226555924477</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,13 +1714,19 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>31.97238356075506</v>
       </c>
-      <c r="Q23">
-        <v>25.78854072810102</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>23.46672294151378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,37 +1734,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.045565281280271</v>
+        <v>5.669816048614887</v>
       </c>
       <c r="D24">
-        <v>2.812965509664388</v>
+        <v>3.10783262035905</v>
       </c>
       <c r="E24">
-        <v>36.40149327567748</v>
+        <v>36.09379200254081</v>
       </c>
       <c r="F24">
-        <v>31.12781112707311</v>
+        <v>29.07168679468127</v>
       </c>
       <c r="G24">
-        <v>45.98945129726178</v>
+        <v>42.72487512616772</v>
       </c>
       <c r="H24">
-        <v>4.789030959358725</v>
+        <v>4.618191046295862</v>
       </c>
       <c r="I24">
-        <v>6.019633310498376</v>
+        <v>5.60307554477486</v>
       </c>
       <c r="J24">
-        <v>12.35066005098702</v>
+        <v>11.97436988445499</v>
       </c>
       <c r="K24">
-        <v>23.18126973720305</v>
+        <v>20.78614812561399</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>17.00314465933347</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>15.18047164850053</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,13 +1773,19 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>29.91317649911916</v>
       </c>
-      <c r="Q24">
-        <v>24.08444086801859</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>22.3489043877288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,37 +1793,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.731160976235516</v>
+        <v>5.383069042681683</v>
       </c>
       <c r="D25">
-        <v>2.711863836442635</v>
+        <v>2.957265823423593</v>
       </c>
       <c r="E25">
-        <v>33.15644430283914</v>
+        <v>32.89341062407451</v>
       </c>
       <c r="F25">
-        <v>28.42857060996925</v>
+        <v>26.71019319304256</v>
       </c>
       <c r="G25">
-        <v>41.74940161539936</v>
+        <v>38.70585851457847</v>
       </c>
       <c r="H25">
-        <v>4.307597573359909</v>
+        <v>4.164113914399283</v>
       </c>
       <c r="I25">
-        <v>5.618687000784193</v>
+        <v>5.268369727010739</v>
       </c>
       <c r="J25">
-        <v>11.53269335845707</v>
+        <v>11.43813955842299</v>
       </c>
       <c r="K25">
-        <v>21.36816807918043</v>
+        <v>19.36511403154774</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.53354073653945</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.24874330593337</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>27.51708508088413</v>
       </c>
-      <c r="Q25">
-        <v>22.1291211239405</v>
+      <c r="S25">
+        <v>20.69056700220411</v>
       </c>
     </row>
   </sheetData>
